--- a/data/house/house.xlsx
+++ b/data/house/house.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C537"/>
+  <dimension ref="A1:D533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>surface</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>loyer_per_m2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -455,6 +460,9 @@
       <c r="C2" t="n">
         <v>37</v>
       </c>
+      <c r="D2" t="n">
+        <v>35.94594594594594</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -466,6 +474,9 @@
       <c r="C3" t="n">
         <v>32</v>
       </c>
+      <c r="D3" t="n">
+        <v>43.75</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -477,6 +488,9 @@
       <c r="C4" t="n">
         <v>26</v>
       </c>
+      <c r="D4" t="n">
+        <v>34.76923076923077</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -488,6 +502,9 @@
       <c r="C5" t="n">
         <v>30</v>
       </c>
+      <c r="D5" t="n">
+        <v>31.83333333333333</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -499,6 +516,9 @@
       <c r="C6" t="n">
         <v>70</v>
       </c>
+      <c r="D6" t="n">
+        <v>36.35714285714285</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -510,6 +530,9 @@
       <c r="C7" t="n">
         <v>24</v>
       </c>
+      <c r="D7" t="n">
+        <v>40.41666666666666</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -521,6 +544,9 @@
       <c r="C8" t="n">
         <v>41</v>
       </c>
+      <c r="D8" t="n">
+        <v>38.04878048780488</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -532,6 +558,9 @@
       <c r="C9" t="n">
         <v>67</v>
       </c>
+      <c r="D9" t="n">
+        <v>29.25373134328358</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -543,6 +572,9 @@
       <c r="C10" t="n">
         <v>63</v>
       </c>
+      <c r="D10" t="n">
+        <v>31.74603174603175</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -554,6 +586,9 @@
       <c r="C11" t="n">
         <v>70</v>
       </c>
+      <c r="D11" t="n">
+        <v>37.14285714285715</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -565,6 +600,9 @@
       <c r="C12" t="n">
         <v>81</v>
       </c>
+      <c r="D12" t="n">
+        <v>40.49382716049383</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -576,6 +614,9 @@
       <c r="C13" t="n">
         <v>26</v>
       </c>
+      <c r="D13" t="n">
+        <v>37.69230769230769</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -587,6 +628,9 @@
       <c r="C14" t="n">
         <v>36</v>
       </c>
+      <c r="D14" t="n">
+        <v>34.72222222222222</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -598,6 +642,9 @@
       <c r="C15" t="n">
         <v>19</v>
       </c>
+      <c r="D15" t="n">
+        <v>39.57894736842105</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -609,6 +656,9 @@
       <c r="C16" t="n">
         <v>20</v>
       </c>
+      <c r="D16" t="n">
+        <v>40.75</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -620,6 +670,9 @@
       <c r="C17" t="n">
         <v>25</v>
       </c>
+      <c r="D17" t="n">
+        <v>45.88</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -631,6 +684,9 @@
       <c r="C18" t="n">
         <v>35</v>
       </c>
+      <c r="D18" t="n">
+        <v>42.85714285714285</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -642,6 +698,9 @@
       <c r="C19" t="n">
         <v>120</v>
       </c>
+      <c r="D19" t="n">
+        <v>29.89166666666667</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -653,6 +712,9 @@
       <c r="C20" t="n">
         <v>40</v>
       </c>
+      <c r="D20" t="n">
+        <v>33.875</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -664,6 +726,9 @@
       <c r="C21" t="n">
         <v>30</v>
       </c>
+      <c r="D21" t="n">
+        <v>41.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -675,6 +740,9 @@
       <c r="C22" t="n">
         <v>25</v>
       </c>
+      <c r="D22" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -686,6 +754,9 @@
       <c r="C23" t="n">
         <v>21</v>
       </c>
+      <c r="D23" t="n">
+        <v>53.33333333333334</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -697,6 +768,9 @@
       <c r="C24" t="n">
         <v>44</v>
       </c>
+      <c r="D24" t="n">
+        <v>27.84090909090909</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -708,6 +782,9 @@
       <c r="C25" t="n">
         <v>35</v>
       </c>
+      <c r="D25" t="n">
+        <v>35.71428571428572</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -719,6 +796,9 @@
       <c r="C26" t="n">
         <v>54</v>
       </c>
+      <c r="D26" t="n">
+        <v>23.7037037037037</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -730,6 +810,9 @@
       <c r="C27" t="n">
         <v>39</v>
       </c>
+      <c r="D27" t="n">
+        <v>28.56410256410257</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -741,6 +824,9 @@
       <c r="C28" t="n">
         <v>34</v>
       </c>
+      <c r="D28" t="n">
+        <v>37.94117647058823</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -752,6 +838,9 @@
       <c r="C29" t="n">
         <v>28</v>
       </c>
+      <c r="D29" t="n">
+        <v>46.42857142857143</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -763,6 +852,9 @@
       <c r="C30" t="n">
         <v>32</v>
       </c>
+      <c r="D30" t="n">
+        <v>40.625</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -774,6 +866,9 @@
       <c r="C31" t="n">
         <v>40</v>
       </c>
+      <c r="D31" t="n">
+        <v>32.6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -785,6 +880,9 @@
       <c r="C32" t="n">
         <v>42</v>
       </c>
+      <c r="D32" t="n">
+        <v>31.90476190476191</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -796,6 +894,9 @@
       <c r="C33" t="n">
         <v>31</v>
       </c>
+      <c r="D33" t="n">
+        <v>43.35483870967742</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -807,6 +908,9 @@
       <c r="C34" t="n">
         <v>33</v>
       </c>
+      <c r="D34" t="n">
+        <v>39.09090909090909</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -818,6 +922,9 @@
       <c r="C35" t="n">
         <v>39</v>
       </c>
+      <c r="D35" t="n">
+        <v>34.97435897435897</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -829,6 +936,9 @@
       <c r="C36" t="n">
         <v>47</v>
       </c>
+      <c r="D36" t="n">
+        <v>29.78723404255319</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -840,6 +950,9 @@
       <c r="C37" t="n">
         <v>33</v>
       </c>
+      <c r="D37" t="n">
+        <v>42.42424242424242</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -851,6 +964,9 @@
       <c r="C38" t="n">
         <v>37</v>
       </c>
+      <c r="D38" t="n">
+        <v>38.37837837837838</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -862,6 +978,9 @@
       <c r="C39" t="n">
         <v>42</v>
       </c>
+      <c r="D39" t="n">
+        <v>33.80952380952381</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -873,6 +992,9 @@
       <c r="C40" t="n">
         <v>46</v>
       </c>
+      <c r="D40" t="n">
+        <v>31.41304347826087</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -884,6 +1006,9 @@
       <c r="C41" t="n">
         <v>37</v>
       </c>
+      <c r="D41" t="n">
+        <v>40.54054054054054</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -895,6 +1020,9 @@
       <c r="C42" t="n">
         <v>46</v>
       </c>
+      <c r="D42" t="n">
+        <v>33.56521739130435</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -906,6 +1034,9 @@
       <c r="C43" t="n">
         <v>42</v>
       </c>
+      <c r="D43" t="n">
+        <v>36.90476190476191</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -917,6 +1048,9 @@
       <c r="C44" t="n">
         <v>49</v>
       </c>
+      <c r="D44" t="n">
+        <v>30.61224489795918</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -928,6 +1062,9 @@
       <c r="C45" t="n">
         <v>48</v>
       </c>
+      <c r="D45" t="n">
+        <v>33.58333333333334</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -939,6 +1076,9 @@
       <c r="C46" t="n">
         <v>50</v>
       </c>
+      <c r="D46" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -950,6 +1090,9 @@
       <c r="C47" t="n">
         <v>54</v>
       </c>
+      <c r="D47" t="n">
+        <v>28.38888888888889</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -961,6 +1104,9 @@
       <c r="C48" t="n">
         <v>54</v>
       </c>
+      <c r="D48" t="n">
+        <v>30.7962962962963</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -972,6 +1118,9 @@
       <c r="C49" t="n">
         <v>45</v>
       </c>
+      <c r="D49" t="n">
+        <v>35.2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -983,6 +1132,9 @@
       <c r="C50" t="n">
         <v>53</v>
       </c>
+      <c r="D50" t="n">
+        <v>31.69811320754717</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -994,6 +1146,9 @@
       <c r="C51" t="n">
         <v>40</v>
       </c>
+      <c r="D51" t="n">
+        <v>42.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1005,6 +1160,9 @@
       <c r="C52" t="n">
         <v>35</v>
       </c>
+      <c r="D52" t="n">
+        <v>48.57142857142857</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1016,6 +1174,9 @@
       <c r="C53" t="n">
         <v>40</v>
       </c>
+      <c r="D53" t="n">
+        <v>42.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1027,6 +1188,9 @@
       <c r="C54" t="n">
         <v>35</v>
       </c>
+      <c r="D54" t="n">
+        <v>48.57142857142857</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1038,6 +1202,9 @@
       <c r="C55" t="n">
         <v>60</v>
       </c>
+      <c r="D55" t="n">
+        <v>28.33333333333333</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1049,6 +1216,9 @@
       <c r="C56" t="n">
         <v>30</v>
       </c>
+      <c r="D56" t="n">
+        <v>53.33333333333334</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1060,6 +1230,9 @@
       <c r="C57" t="n">
         <v>34</v>
       </c>
+      <c r="D57" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1071,6 +1244,9 @@
       <c r="C58" t="n">
         <v>64</v>
       </c>
+      <c r="D58" t="n">
+        <v>26.71875</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1082,6 +1258,9 @@
       <c r="C59" t="n">
         <v>47</v>
       </c>
+      <c r="D59" t="n">
+        <v>34.04255319148936</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1093,6 +1272,9 @@
       <c r="C60" t="n">
         <v>43</v>
       </c>
+      <c r="D60" t="n">
+        <v>40.69767441860465</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1104,6 +1286,9 @@
       <c r="C61" t="n">
         <v>62</v>
       </c>
+      <c r="D61" t="n">
+        <v>28.46774193548387</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1115,6 +1300,9 @@
       <c r="C62" t="n">
         <v>50</v>
       </c>
+      <c r="D62" t="n">
+        <v>35.8</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1126,6 +1314,9 @@
       <c r="C63" t="n">
         <v>53</v>
       </c>
+      <c r="D63" t="n">
+        <v>31.86792452830189</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1137,6 +1328,9 @@
       <c r="C64" t="n">
         <v>50</v>
       </c>
+      <c r="D64" t="n">
+        <v>35.9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1148,6 +1342,9 @@
       <c r="C65" t="n">
         <v>50</v>
       </c>
+      <c r="D65" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1159,6 +1356,9 @@
       <c r="C66" t="n">
         <v>60</v>
       </c>
+      <c r="D66" t="n">
+        <v>28.33333333333333</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1170,6 +1370,9 @@
       <c r="C67" t="n">
         <v>42</v>
       </c>
+      <c r="D67" t="n">
+        <v>42.85714285714285</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1181,6 +1384,9 @@
       <c r="C68" t="n">
         <v>52</v>
       </c>
+      <c r="D68" t="n">
+        <v>35.57692307692308</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1192,6 +1398,9 @@
       <c r="C69" t="n">
         <v>45</v>
       </c>
+      <c r="D69" t="n">
+        <v>41.11111111111111</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1203,6 +1412,9 @@
       <c r="C70" t="n">
         <v>41</v>
       </c>
+      <c r="D70" t="n">
+        <v>42.68292682926829</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1214,6 +1426,9 @@
       <c r="C71" t="n">
         <v>63</v>
       </c>
+      <c r="D71" t="n">
+        <v>29.36507936507936</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1225,6 +1440,9 @@
       <c r="C72" t="n">
         <v>53</v>
       </c>
+      <c r="D72" t="n">
+        <v>34.90566037735849</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1236,6 +1454,9 @@
       <c r="C73" t="n">
         <v>45</v>
       </c>
+      <c r="D73" t="n">
+        <v>41.11111111111111</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1247,6 +1468,9 @@
       <c r="C74" t="n">
         <v>53</v>
       </c>
+      <c r="D74" t="n">
+        <v>35.37735849056604</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1258,6 +1482,9 @@
       <c r="C75" t="n">
         <v>55</v>
       </c>
+      <c r="D75" t="n">
+        <v>34.54545454545455</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1269,6 +1496,9 @@
       <c r="C76" t="n">
         <v>46</v>
       </c>
+      <c r="D76" t="n">
+        <v>42.39130434782609</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1280,6 +1510,9 @@
       <c r="C77" t="n">
         <v>73</v>
       </c>
+      <c r="D77" t="n">
+        <v>23.97260273972603</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1291,6 +1524,9 @@
       <c r="C78" t="n">
         <v>53</v>
       </c>
+      <c r="D78" t="n">
+        <v>37.73584905660378</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -1302,6 +1538,9 @@
       <c r="C79" t="n">
         <v>64</v>
       </c>
+      <c r="D79" t="n">
+        <v>31.9375</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -1313,6 +1552,9 @@
       <c r="C80" t="n">
         <v>38</v>
       </c>
+      <c r="D80" t="n">
+        <v>55.26315789473684</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -1324,6 +1566,9 @@
       <c r="C81" t="n">
         <v>65</v>
       </c>
+      <c r="D81" t="n">
+        <v>32.30769230769231</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -1335,6 +1580,9 @@
       <c r="C82" t="n">
         <v>59</v>
       </c>
+      <c r="D82" t="n">
+        <v>35.59322033898305</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -1346,6 +1594,9 @@
       <c r="C83" t="n">
         <v>47</v>
       </c>
+      <c r="D83" t="n">
+        <v>44.68085106382978</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -1357,6 +1608,9 @@
       <c r="C84" t="n">
         <v>75</v>
       </c>
+      <c r="D84" t="n">
+        <v>28.09333333333333</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -1368,6 +1622,9 @@
       <c r="C85" t="n">
         <v>83</v>
       </c>
+      <c r="D85" t="n">
+        <v>25.49397590361446</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -1379,6 +1636,9 @@
       <c r="C86" t="n">
         <v>69</v>
       </c>
+      <c r="D86" t="n">
+        <v>30.89855072463768</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -1390,6 +1650,9 @@
       <c r="C87" t="n">
         <v>68</v>
       </c>
+      <c r="D87" t="n">
+        <v>29.41176470588235</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -1401,6 +1664,9 @@
       <c r="C88" t="n">
         <v>69</v>
       </c>
+      <c r="D88" t="n">
+        <v>31.59420289855073</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -1412,6 +1678,9 @@
       <c r="C89" t="n">
         <v>72</v>
       </c>
+      <c r="D89" t="n">
+        <v>29.16666666666667</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -1423,6 +1692,9 @@
       <c r="C90" t="n">
         <v>40</v>
       </c>
+      <c r="D90" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -1434,6 +1706,9 @@
       <c r="C91" t="n">
         <v>50</v>
       </c>
+      <c r="D91" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -1445,6 +1720,9 @@
       <c r="C92" t="n">
         <v>60</v>
       </c>
+      <c r="D92" t="n">
+        <v>36.66666666666666</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -1456,6 +1734,9 @@
       <c r="C93" t="n">
         <v>68</v>
       </c>
+      <c r="D93" t="n">
+        <v>32.58823529411764</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -1467,6 +1748,9 @@
       <c r="C94" t="n">
         <v>69</v>
       </c>
+      <c r="D94" t="n">
+        <v>32.46376811594203</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -1478,6 +1762,9 @@
       <c r="C95" t="n">
         <v>35</v>
       </c>
+      <c r="D95" t="n">
+        <v>64.25714285714285</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -1489,6 +1776,9 @@
       <c r="C96" t="n">
         <v>78</v>
       </c>
+      <c r="D96" t="n">
+        <v>29.25641025641026</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -1500,6 +1790,9 @@
       <c r="C97" t="n">
         <v>65</v>
       </c>
+      <c r="D97" t="n">
+        <v>35.38461538461539</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -1511,6 +1804,9 @@
       <c r="C98" t="n">
         <v>54</v>
       </c>
+      <c r="D98" t="n">
+        <v>42.5925925925926</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -1522,6 +1818,9 @@
       <c r="C99" t="n">
         <v>60</v>
       </c>
+      <c r="D99" t="n">
+        <v>38.66666666666666</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -1533,6 +1832,9 @@
       <c r="C100" t="n">
         <v>64</v>
       </c>
+      <c r="D100" t="n">
+        <v>36.3125</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -1544,6 +1846,9 @@
       <c r="C101" t="n">
         <v>64</v>
       </c>
+      <c r="D101" t="n">
+        <v>36.3125</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -1555,6 +1860,9 @@
       <c r="C102" t="n">
         <v>76</v>
       </c>
+      <c r="D102" t="n">
+        <v>31.14473684210526</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -1566,6 +1874,9 @@
       <c r="C103" t="n">
         <v>70</v>
       </c>
+      <c r="D103" t="n">
+        <v>34.28571428571428</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -1577,6 +1888,9 @@
       <c r="C104" t="n">
         <v>70</v>
       </c>
+      <c r="D104" t="n">
+        <v>34.28571428571428</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -1588,6 +1902,9 @@
       <c r="C105" t="n">
         <v>71</v>
       </c>
+      <c r="D105" t="n">
+        <v>34.43661971830986</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -1599,6 +1916,9 @@
       <c r="C106" t="n">
         <v>84</v>
       </c>
+      <c r="D106" t="n">
+        <v>29.16666666666667</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -1610,6 +1930,9 @@
       <c r="C107" t="n">
         <v>90</v>
       </c>
+      <c r="D107" t="n">
+        <v>27.22222222222222</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -1621,6 +1944,9 @@
       <c r="C108" t="n">
         <v>96</v>
       </c>
+      <c r="D108" t="n">
+        <v>23.75</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -1632,6 +1958,9 @@
       <c r="C109" t="n">
         <v>89</v>
       </c>
+      <c r="D109" t="n">
+        <v>25.28089887640449</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -1643,6 +1972,9 @@
       <c r="C110" t="n">
         <v>75</v>
       </c>
+      <c r="D110" t="n">
+        <v>32.2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -1654,6 +1986,9 @@
       <c r="C111" t="n">
         <v>55</v>
       </c>
+      <c r="D111" t="n">
+        <v>44.90909090909091</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -1665,6 +2000,9 @@
       <c r="C112" t="n">
         <v>56</v>
       </c>
+      <c r="D112" t="n">
+        <v>46.42857142857143</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -1676,6 +2014,9 @@
       <c r="C113" t="n">
         <v>56</v>
       </c>
+      <c r="D113" t="n">
+        <v>47.32142857142857</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -1687,6 +2028,9 @@
       <c r="C114" t="n">
         <v>56</v>
       </c>
+      <c r="D114" t="n">
+        <v>47.32142857142857</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -1698,6 +2042,9 @@
       <c r="C115" t="n">
         <v>91</v>
       </c>
+      <c r="D115" t="n">
+        <v>29.39560439560439</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -1709,6 +2056,9 @@
       <c r="C116" t="n">
         <v>100</v>
       </c>
+      <c r="D116" t="n">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -1720,6 +2070,9 @@
       <c r="C117" t="n">
         <v>73</v>
       </c>
+      <c r="D117" t="n">
+        <v>36.98630136986301</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -1731,6 +2084,9 @@
       <c r="C118" t="n">
         <v>94</v>
       </c>
+      <c r="D118" t="n">
+        <v>29.57446808510638</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -1742,6 +2098,9 @@
       <c r="C119" t="n">
         <v>50</v>
       </c>
+      <c r="D119" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -1753,6 +2112,9 @@
       <c r="C120" t="n">
         <v>60</v>
       </c>
+      <c r="D120" t="n">
+        <v>46.66666666666666</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -1764,6 +2126,9 @@
       <c r="C121" t="n">
         <v>90</v>
       </c>
+      <c r="D121" t="n">
+        <v>31.66666666666667</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -1775,6 +2140,9 @@
       <c r="C122" t="n">
         <v>96</v>
       </c>
+      <c r="D122" t="n">
+        <v>30.63541666666667</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -1786,6 +2154,9 @@
       <c r="C123" t="n">
         <v>96</v>
       </c>
+      <c r="D123" t="n">
+        <v>30.63541666666667</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -1797,6 +2168,9 @@
       <c r="C124" t="n">
         <v>50</v>
       </c>
+      <c r="D124" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -1808,6 +2182,9 @@
       <c r="C125" t="n">
         <v>83</v>
       </c>
+      <c r="D125" t="n">
+        <v>33.73493975903614</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -1819,6 +2196,9 @@
       <c r="C126" t="n">
         <v>99</v>
       </c>
+      <c r="D126" t="n">
+        <v>30.3030303030303</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -1830,6 +2210,9 @@
       <c r="C127" t="n">
         <v>88</v>
       </c>
+      <c r="D127" t="n">
+        <v>34.09090909090909</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -1841,6 +2224,9 @@
       <c r="C128" t="n">
         <v>104</v>
       </c>
+      <c r="D128" t="n">
+        <v>28.94230769230769</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -1852,6 +2238,9 @@
       <c r="C129" t="n">
         <v>85</v>
       </c>
+      <c r="D129" t="n">
+        <v>34.70588235294117</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -1863,6 +2252,9 @@
       <c r="C130" t="n">
         <v>70</v>
       </c>
+      <c r="D130" t="n">
+        <v>45.71428571428572</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -1874,6 +2266,9 @@
       <c r="C131" t="n">
         <v>60</v>
       </c>
+      <c r="D131" t="n">
+        <v>53.33333333333334</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -1885,6 +2280,9 @@
       <c r="C132" t="n">
         <v>84</v>
       </c>
+      <c r="D132" t="n">
+        <v>38.09523809523809</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -1896,6 +2294,9 @@
       <c r="C133" t="n">
         <v>103</v>
       </c>
+      <c r="D133" t="n">
+        <v>31.39805825242718</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -1907,6 +2308,9 @@
       <c r="C134" t="n">
         <v>108</v>
       </c>
+      <c r="D134" t="n">
+        <v>30.55555555555556</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -1918,6 +2322,9 @@
       <c r="C135" t="n">
         <v>70</v>
       </c>
+      <c r="D135" t="n">
+        <v>48.85714285714285</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -1929,6 +2336,9 @@
       <c r="C136" t="n">
         <v>88</v>
       </c>
+      <c r="D136" t="n">
+        <v>38.06818181818182</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -1940,6 +2350,9 @@
       <c r="C137" t="n">
         <v>101</v>
       </c>
+      <c r="D137" t="n">
+        <v>30.99009900990099</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -1951,6 +2364,9 @@
       <c r="C138" t="n">
         <v>103</v>
       </c>
+      <c r="D138" t="n">
+        <v>33.98058252427185</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -1962,6 +2378,9 @@
       <c r="C139" t="n">
         <v>70</v>
       </c>
+      <c r="D139" t="n">
+        <v>52.85714285714285</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -1973,6 +2392,9 @@
       <c r="C140" t="n">
         <v>53</v>
       </c>
+      <c r="D140" t="n">
+        <v>69.90566037735849</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -1984,6 +2406,9 @@
       <c r="C141" t="n">
         <v>53</v>
       </c>
+      <c r="D141" t="n">
+        <v>69.90566037735849</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -1995,6 +2420,9 @@
       <c r="C142" t="n">
         <v>72</v>
       </c>
+      <c r="D142" t="n">
+        <v>52.77777777777778</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -2006,6 +2434,9 @@
       <c r="C143" t="n">
         <v>91</v>
       </c>
+      <c r="D143" t="n">
+        <v>42.85714285714285</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -2017,6 +2448,9 @@
       <c r="C144" t="n">
         <v>97</v>
       </c>
+      <c r="D144" t="n">
+        <v>38.14432989690722</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -2028,6 +2462,9 @@
       <c r="C145" t="n">
         <v>135</v>
       </c>
+      <c r="D145" t="n">
+        <v>29.62962962962963</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -2039,6 +2476,9 @@
       <c r="C146" t="n">
         <v>80</v>
       </c>
+      <c r="D146" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -2050,6 +2490,9 @@
       <c r="C147" t="n">
         <v>116</v>
       </c>
+      <c r="D147" t="n">
+        <v>33.18965517241379</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -2061,6 +2504,9 @@
       <c r="C148" t="n">
         <v>152</v>
       </c>
+      <c r="D148" t="n">
+        <v>28.99342105263158</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -2072,6 +2518,9 @@
       <c r="C149" t="n">
         <v>159</v>
       </c>
+      <c r="D149" t="n">
+        <v>31.44654088050314</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -2083,6 +2532,9 @@
       <c r="C150" t="n">
         <v>162</v>
       </c>
+      <c r="D150" t="n">
+        <v>32.30246913580247</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -2094,6 +2546,9 @@
       <c r="C151" t="n">
         <v>137</v>
       </c>
+      <c r="D151" t="n">
+        <v>38.31386861313869</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -2105,6 +2560,9 @@
       <c r="C152" t="n">
         <v>160</v>
       </c>
+      <c r="D152" t="n">
+        <v>34.375</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -2116,6 +2574,9 @@
       <c r="C153" t="n">
         <v>157</v>
       </c>
+      <c r="D153" t="n">
+        <v>35.6687898089172</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -2127,6 +2588,9 @@
       <c r="C154" t="n">
         <v>160</v>
       </c>
+      <c r="D154" t="n">
+        <v>37.3125</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -2138,6 +2602,9 @@
       <c r="C155" t="n">
         <v>152</v>
       </c>
+      <c r="D155" t="n">
+        <v>39.47368421052632</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -2149,373 +2616,475 @@
       <c r="C156" t="n">
         <v>152</v>
       </c>
+      <c r="D156" t="n">
+        <v>39.47368421052632</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B157" t="n">
-        <v>7450</v>
+        <v>775</v>
       </c>
       <c r="C157" t="n">
-        <v>180</v>
+        <v>20</v>
+      </c>
+      <c r="D157" t="n">
+        <v>38.75</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B158" t="n">
-        <v>7280</v>
+        <v>816</v>
       </c>
       <c r="C158" t="n">
-        <v>182</v>
+        <v>19</v>
+      </c>
+      <c r="D158" t="n">
+        <v>42.94736842105263</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B159" t="n">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="C159" t="n">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D159" t="n">
+        <v>42.10526315789474</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B160" t="n">
-        <v>816</v>
+        <v>900</v>
       </c>
       <c r="C160" t="n">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D160" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B161" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="C161" t="n">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="D161" t="n">
+        <v>32.14285714285715</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B162" t="n">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="C162" t="n">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="D162" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B163" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="C163" t="n">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="D163" t="n">
+        <v>45.71428571428572</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B164" t="n">
-        <v>888</v>
+        <v>966</v>
       </c>
       <c r="C164" t="n">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="D164" t="n">
+        <v>32.2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B165" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="C165" t="n">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D165" t="n">
+        <v>52.63157894736842</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B166" t="n">
-        <v>966</v>
+        <v>1040</v>
       </c>
       <c r="C166" t="n">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="D166" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B167" t="n">
-        <v>1000</v>
+        <v>1048</v>
       </c>
       <c r="C167" t="n">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="D167" t="n">
+        <v>33.80645161290322</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B168" t="n">
-        <v>1040</v>
+        <v>1072</v>
       </c>
       <c r="C168" t="n">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D168" t="n">
+        <v>33.5</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B169" t="n">
-        <v>1048</v>
+        <v>1090</v>
       </c>
       <c r="C169" t="n">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="D169" t="n">
+        <v>54.5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B170" t="n">
-        <v>1072</v>
+        <v>1100</v>
       </c>
       <c r="C170" t="n">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="D170" t="n">
+        <v>42.30769230769231</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B171" t="n">
-        <v>1090</v>
+        <v>1150</v>
       </c>
       <c r="C171" t="n">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D171" t="n">
+        <v>54.76190476190476</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B172" t="n">
-        <v>1100</v>
+        <v>1180</v>
       </c>
       <c r="C172" t="n">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="D172" t="n">
+        <v>51.30434782608695</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B173" t="n">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="C173" t="n">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="D173" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B174" t="n">
-        <v>1180</v>
+        <v>1200</v>
       </c>
       <c r="C174" t="n">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D174" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B175" t="n">
         <v>1200</v>
       </c>
       <c r="C175" t="n">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="D175" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B176" t="n">
         <v>1200</v>
       </c>
       <c r="C176" t="n">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="D176" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B177" t="n">
-        <v>1200</v>
+        <v>1218</v>
       </c>
       <c r="C177" t="n">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="D177" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B178" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="C178" t="n">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D178" t="n">
+        <v>59.52380952380953</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B179" t="n">
-        <v>1218</v>
+        <v>1250</v>
       </c>
       <c r="C179" t="n">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="D179" t="n">
+        <v>36.76470588235294</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B180" t="n">
-        <v>1250</v>
+        <v>1300</v>
       </c>
       <c r="C180" t="n">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D180" t="n">
+        <v>59.09090909090909</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B181" t="n">
-        <v>1250</v>
+        <v>1329</v>
       </c>
       <c r="C181" t="n">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="D181" t="n">
+        <v>37.97142857142857</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B182" t="n">
-        <v>1300</v>
+        <v>1340</v>
       </c>
       <c r="C182" t="n">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="D182" t="n">
+        <v>44.66666666666666</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B183" t="n">
-        <v>1329</v>
+        <v>1500</v>
       </c>
       <c r="C183" t="n">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D183" t="n">
+        <v>46.875</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B184" t="n">
-        <v>1340</v>
+        <v>1500</v>
       </c>
       <c r="C184" t="n">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="D184" t="n">
+        <v>46.875</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B185" t="n">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="C185" t="n">
-        <v>32</v>
+        <v>59</v>
+      </c>
+      <c r="D185" t="n">
+        <v>26.27118644067797</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B186" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="C186" t="n">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="D186" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B187" t="n">
-        <v>1550</v>
+        <v>1910</v>
       </c>
       <c r="C187" t="n">
-        <v>59</v>
+        <v>71</v>
+      </c>
+      <c r="D187" t="n">
+        <v>26.90140845070422</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B188" t="n">
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="C188" t="n">
         <v>50</v>
       </c>
+      <c r="D188" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B189" t="n">
-        <v>1910</v>
+        <v>2950</v>
       </c>
       <c r="C189" t="n">
-        <v>71</v>
+        <v>82</v>
+      </c>
+      <c r="D189" t="n">
+        <v>35.97560975609756</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B190" t="n">
         <v>2700</v>
@@ -2523,285 +3092,363 @@
       <c r="C190" t="n">
         <v>50</v>
       </c>
+      <c r="D190" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B191" t="n">
-        <v>2950</v>
+        <v>6500</v>
       </c>
       <c r="C191" t="n">
-        <v>82</v>
+        <v>161</v>
+      </c>
+      <c r="D191" t="n">
+        <v>40.37267080745342</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B192" t="n">
-        <v>2700</v>
+        <v>7500</v>
       </c>
       <c r="C192" t="n">
+        <v>150</v>
+      </c>
+      <c r="D192" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B193" t="n">
-        <v>6500</v>
+        <v>1048</v>
       </c>
       <c r="C193" t="n">
-        <v>161</v>
+        <v>31</v>
+      </c>
+      <c r="D193" t="n">
+        <v>33.80645161290322</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B194" t="n">
-        <v>7500</v>
+        <v>1650</v>
       </c>
       <c r="C194" t="n">
-        <v>150</v>
+        <v>45</v>
+      </c>
+      <c r="D194" t="n">
+        <v>36.66666666666666</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B195" t="n">
-        <v>1048</v>
+        <v>1100</v>
       </c>
       <c r="C195" t="n">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="D195" t="n">
+        <v>37.93103448275862</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B196" t="n">
-        <v>1650</v>
+        <v>1133</v>
       </c>
       <c r="C196" t="n">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="D196" t="n">
+        <v>34.33333333333334</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B197" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="C197" t="n">
-        <v>29</v>
+        <v>45</v>
+      </c>
+      <c r="D197" t="n">
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B198" t="n">
-        <v>1133</v>
+        <v>1530</v>
       </c>
       <c r="C198" t="n">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="D198" t="n">
+        <v>43.71428571428572</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B199" t="n">
-        <v>1500</v>
+        <v>1520</v>
       </c>
       <c r="C199" t="n">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="D199" t="n">
+        <v>27.63636363636364</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B200" t="n">
-        <v>1530</v>
+        <v>1600</v>
       </c>
       <c r="C200" t="n">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D200" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B201" t="n">
-        <v>1520</v>
+        <v>1620</v>
       </c>
       <c r="C201" t="n">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="D201" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B202" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="C202" t="n">
-        <v>32</v>
+        <v>60</v>
+      </c>
+      <c r="D202" t="n">
+        <v>28.33333333333333</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B203" t="n">
-        <v>1620</v>
+        <v>1820</v>
       </c>
       <c r="C203" t="n">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="D203" t="n">
+        <v>39.56521739130435</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B204" t="n">
-        <v>1700</v>
+        <v>1850</v>
       </c>
       <c r="C204" t="n">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="D204" t="n">
+        <v>28.03030303030303</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B205" t="n">
-        <v>1820</v>
+        <v>1939</v>
       </c>
       <c r="C205" t="n">
-        <v>46</v>
+        <v>71</v>
+      </c>
+      <c r="D205" t="n">
+        <v>27.30985915492958</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B206" t="n">
-        <v>1850</v>
+        <v>1958</v>
       </c>
       <c r="C206" t="n">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="D206" t="n">
+        <v>26.45945945945946</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B207" t="n">
-        <v>1939</v>
+        <v>1750</v>
       </c>
       <c r="C207" t="n">
-        <v>71</v>
+        <v>87</v>
+      </c>
+      <c r="D207" t="n">
+        <v>20.11494252873563</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B208" t="n">
-        <v>1958</v>
+        <v>2090</v>
       </c>
       <c r="C208" t="n">
-        <v>74</v>
+        <v>62</v>
+      </c>
+      <c r="D208" t="n">
+        <v>33.70967741935484</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B209" t="n">
-        <v>1750</v>
+        <v>2102</v>
       </c>
       <c r="C209" t="n">
-        <v>87</v>
+        <v>68</v>
+      </c>
+      <c r="D209" t="n">
+        <v>30.91176470588235</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B210" t="n">
-        <v>2090</v>
+        <v>2162</v>
       </c>
       <c r="C210" t="n">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="D210" t="n">
+        <v>28.82666666666667</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B211" t="n">
-        <v>2102</v>
+        <v>2150</v>
       </c>
       <c r="C211" t="n">
-        <v>68</v>
+        <v>80</v>
+      </c>
+      <c r="D211" t="n">
+        <v>26.875</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B212" t="n">
-        <v>2162</v>
+        <v>2250</v>
       </c>
       <c r="C212" t="n">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="D212" t="n">
+        <v>30.40540540540541</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B213" t="n">
-        <v>2150</v>
+        <v>2359</v>
       </c>
       <c r="C213" t="n">
         <v>80</v>
       </c>
+      <c r="D213" t="n">
+        <v>29.4875</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B214" t="n">
-        <v>2250</v>
+        <v>2400</v>
       </c>
       <c r="C214" t="n">
-        <v>74</v>
+        <v>112</v>
+      </c>
+      <c r="D214" t="n">
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B215" t="n">
-        <v>2359</v>
+        <v>2459</v>
       </c>
       <c r="C215" t="n">
-        <v>80</v>
+        <v>96</v>
+      </c>
+      <c r="D215" t="n">
+        <v>25.61458333333333</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B216" t="n">
         <v>2400</v>
@@ -2809,10 +3456,13 @@
       <c r="C216" t="n">
         <v>112</v>
       </c>
+      <c r="D216" t="n">
+        <v>21.42857142857143</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B217" t="n">
         <v>2459</v>
@@ -2820,3200 +3470,4073 @@
       <c r="C217" t="n">
         <v>96</v>
       </c>
+      <c r="D217" t="n">
+        <v>25.61458333333333</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B218" t="n">
-        <v>2400</v>
+        <v>2535</v>
       </c>
       <c r="C218" t="n">
-        <v>112</v>
+        <v>86</v>
+      </c>
+      <c r="D218" t="n">
+        <v>29.47674418604651</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B219" t="n">
-        <v>2459</v>
+        <v>2650</v>
       </c>
       <c r="C219" t="n">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="D219" t="n">
+        <v>29.44444444444444</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B220" t="n">
-        <v>2535</v>
+        <v>2650</v>
       </c>
       <c r="C220" t="n">
-        <v>86</v>
+        <v>98</v>
+      </c>
+      <c r="D220" t="n">
+        <v>27.04081632653061</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B221" t="n">
-        <v>2650</v>
+        <v>2900</v>
       </c>
       <c r="C221" t="n">
-        <v>90</v>
+        <v>105</v>
+      </c>
+      <c r="D221" t="n">
+        <v>27.61904761904762</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B222" t="n">
-        <v>2650</v>
+        <v>2950</v>
       </c>
       <c r="C222" t="n">
-        <v>98</v>
+        <v>70</v>
+      </c>
+      <c r="D222" t="n">
+        <v>42.14285714285715</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B223" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="C223" t="n">
-        <v>105</v>
+        <v>88</v>
+      </c>
+      <c r="D223" t="n">
+        <v>34.09090909090909</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B224" t="n">
-        <v>2950</v>
+        <v>3234</v>
       </c>
       <c r="C224" t="n">
-        <v>70</v>
+        <v>105</v>
+      </c>
+      <c r="D224" t="n">
+        <v>30.8</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B225" t="n">
-        <v>3000</v>
+        <v>3243</v>
       </c>
       <c r="C225" t="n">
-        <v>88</v>
+        <v>120</v>
+      </c>
+      <c r="D225" t="n">
+        <v>27.025</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B226" t="n">
-        <v>3234</v>
+        <v>4200</v>
       </c>
       <c r="C226" t="n">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="D226" t="n">
+        <v>35.8974358974359</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B227" t="n">
-        <v>3243</v>
+        <v>4938</v>
       </c>
       <c r="C227" t="n">
-        <v>120</v>
+        <v>173</v>
+      </c>
+      <c r="D227" t="n">
+        <v>28.54335260115607</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B228" t="n">
-        <v>4200</v>
+        <v>1100</v>
       </c>
       <c r="C228" t="n">
-        <v>117</v>
+        <v>31</v>
+      </c>
+      <c r="D228" t="n">
+        <v>35.48387096774194</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B229" t="n">
-        <v>4938</v>
+        <v>700</v>
       </c>
       <c r="C229" t="n">
-        <v>173</v>
+        <v>23</v>
+      </c>
+      <c r="D229" t="n">
+        <v>30.43478260869565</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B230" t="n">
-        <v>1100</v>
+        <v>880</v>
       </c>
       <c r="C230" t="n">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="D230" t="n">
+        <v>41.90476190476191</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B231" t="n">
-        <v>700</v>
+        <v>930</v>
       </c>
       <c r="C231" t="n">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="D231" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B232" t="n">
-        <v>880</v>
+        <v>940</v>
       </c>
       <c r="C232" t="n">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="D232" t="n">
+        <v>34.81481481481482</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B233" t="n">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="C233" t="n">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D233" t="n">
+        <v>45.23809523809524</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B234" t="n">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="C234" t="n">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="D234" t="n">
+        <v>45.23809523809524</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B235" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="C235" t="n">
         <v>21</v>
       </c>
+      <c r="D235" t="n">
+        <v>47.61904761904762</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B236" t="n">
-        <v>950</v>
+        <v>1380</v>
       </c>
       <c r="C236" t="n">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="D236" t="n">
+        <v>38.33333333333334</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B237" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="C237" t="n">
-        <v>21</v>
+        <v>57</v>
+      </c>
+      <c r="D237" t="n">
+        <v>29.82456140350877</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B238" t="n">
-        <v>1380</v>
+        <v>1740</v>
       </c>
       <c r="C238" t="n">
-        <v>36</v>
+        <v>49</v>
+      </c>
+      <c r="D238" t="n">
+        <v>35.51020408163265</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B239" t="n">
-        <v>1700</v>
+        <v>2367</v>
       </c>
       <c r="C239" t="n">
-        <v>57</v>
+        <v>76</v>
+      </c>
+      <c r="D239" t="n">
+        <v>31.14473684210526</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B240" t="n">
-        <v>1740</v>
+        <v>2800</v>
       </c>
       <c r="C240" t="n">
-        <v>49</v>
+        <v>83</v>
+      </c>
+      <c r="D240" t="n">
+        <v>33.73493975903614</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B241" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="C241" t="n">
-        <v>76</v>
+        <v>104</v>
+      </c>
+      <c r="D241" t="n">
+        <v>28.84615384615385</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B242" t="n">
-        <v>2800</v>
+        <v>1365</v>
       </c>
       <c r="C242" t="n">
-        <v>83</v>
+        <v>44</v>
+      </c>
+      <c r="D242" t="n">
+        <v>31.02272727272727</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B243" t="n">
-        <v>3000</v>
+        <v>855</v>
       </c>
       <c r="C243" t="n">
-        <v>104</v>
+        <v>20</v>
+      </c>
+      <c r="D243" t="n">
+        <v>42.75</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B244" t="n">
-        <v>1365</v>
+        <v>1250</v>
       </c>
       <c r="C244" t="n">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="D244" t="n">
+        <v>41.66666666666666</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B245" t="n">
-        <v>855</v>
+        <v>2132</v>
       </c>
       <c r="C245" t="n">
-        <v>20</v>
+        <v>69</v>
+      </c>
+      <c r="D245" t="n">
+        <v>30.89855072463768</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B246" t="n">
-        <v>1250</v>
+        <v>2840</v>
       </c>
       <c r="C246" t="n">
-        <v>30</v>
+        <v>77</v>
+      </c>
+      <c r="D246" t="n">
+        <v>36.88311688311688</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B247" t="n">
-        <v>2132</v>
+        <v>2614</v>
       </c>
       <c r="C247" t="n">
-        <v>69</v>
+        <v>96</v>
+      </c>
+      <c r="D247" t="n">
+        <v>27.22916666666667</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B248" t="n">
-        <v>2840</v>
+        <v>693</v>
       </c>
       <c r="C248" t="n">
-        <v>77</v>
+        <v>19</v>
+      </c>
+      <c r="D248" t="n">
+        <v>36.47368421052632</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B249" t="n">
-        <v>2614</v>
+        <v>1000</v>
       </c>
       <c r="C249" t="n">
-        <v>96</v>
+        <v>20</v>
+      </c>
+      <c r="D249" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B250" t="n">
-        <v>693</v>
+        <v>2200</v>
       </c>
       <c r="C250" t="n">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="D250" t="n">
+        <v>81.48148148148148</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B251" t="n">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="C251" t="n">
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="D251" t="n">
+        <v>31.66666666666667</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B252" t="n">
-        <v>2200</v>
+        <v>2347</v>
       </c>
       <c r="C252" t="n">
-        <v>27</v>
+        <v>72</v>
+      </c>
+      <c r="D252" t="n">
+        <v>32.59722222222222</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B253" t="n">
-        <v>1900</v>
+        <v>3460</v>
       </c>
       <c r="C253" t="n">
-        <v>60</v>
+        <v>103</v>
+      </c>
+      <c r="D253" t="n">
+        <v>33.59223300970874</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B254" t="n">
-        <v>2347</v>
+        <v>1100</v>
       </c>
       <c r="C254" t="n">
-        <v>72</v>
+        <v>25</v>
+      </c>
+      <c r="D254" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B255" t="n">
-        <v>3460</v>
+        <v>1200</v>
       </c>
       <c r="C255" t="n">
-        <v>103</v>
+        <v>30</v>
+      </c>
+      <c r="D255" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B256" t="n">
-        <v>1100</v>
+        <v>1313</v>
       </c>
       <c r="C256" t="n">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="D256" t="n">
+        <v>32.825</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B257" t="n">
-        <v>1200</v>
+        <v>1490</v>
       </c>
       <c r="C257" t="n">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="D257" t="n">
+        <v>27.59259259259259</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B258" t="n">
-        <v>1313</v>
+        <v>1850</v>
       </c>
       <c r="C258" t="n">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="D258" t="n">
+        <v>31.35593220338983</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B259" t="n">
-        <v>1490</v>
+        <v>1880</v>
       </c>
       <c r="C259" t="n">
-        <v>54</v>
+        <v>62</v>
+      </c>
+      <c r="D259" t="n">
+        <v>30.32258064516129</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B260" t="n">
-        <v>1850</v>
+        <v>1900</v>
       </c>
       <c r="C260" t="n">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="D260" t="n">
+        <v>29.6875</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B261" t="n">
-        <v>1880</v>
+        <v>1900</v>
       </c>
       <c r="C261" t="n">
-        <v>62</v>
+        <v>48</v>
+      </c>
+      <c r="D261" t="n">
+        <v>39.58333333333334</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B262" t="n">
-        <v>1900</v>
+        <v>2008</v>
       </c>
       <c r="C262" t="n">
-        <v>64</v>
+        <v>87</v>
+      </c>
+      <c r="D262" t="n">
+        <v>23.08045977011494</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B263" t="n">
-        <v>1900</v>
+        <v>2960</v>
       </c>
       <c r="C263" t="n">
-        <v>48</v>
+        <v>106</v>
+      </c>
+      <c r="D263" t="n">
+        <v>27.92452830188679</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B264" t="n">
-        <v>2008</v>
+        <v>3200</v>
       </c>
       <c r="C264" t="n">
-        <v>87</v>
+        <v>114</v>
+      </c>
+      <c r="D264" t="n">
+        <v>28.07017543859649</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B265" t="n">
-        <v>2960</v>
+        <v>3220</v>
       </c>
       <c r="C265" t="n">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="D265" t="n">
+        <v>29.27272727272727</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B266" t="n">
-        <v>3200</v>
+        <v>3380</v>
       </c>
       <c r="C266" t="n">
-        <v>114</v>
+        <v>129</v>
+      </c>
+      <c r="D266" t="n">
+        <v>26.2015503875969</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B267" t="n">
-        <v>3220</v>
+        <v>3950</v>
       </c>
       <c r="C267" t="n">
-        <v>110</v>
+        <v>125</v>
+      </c>
+      <c r="D267" t="n">
+        <v>31.6</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B268" t="n">
-        <v>3380</v>
+        <v>645</v>
       </c>
       <c r="C268" t="n">
-        <v>129</v>
+        <v>15</v>
+      </c>
+      <c r="D268" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B269" t="n">
-        <v>3950</v>
+        <v>682</v>
       </c>
       <c r="C269" t="n">
-        <v>125</v>
+        <v>17</v>
+      </c>
+      <c r="D269" t="n">
+        <v>40.11764705882353</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B270" t="n">
-        <v>645</v>
+        <v>745</v>
       </c>
       <c r="C270" t="n">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="D270" t="n">
+        <v>37.25</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B271" t="n">
-        <v>682</v>
+        <v>1780</v>
       </c>
       <c r="C271" t="n">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="D271" t="n">
+        <v>39.55555555555556</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B272" t="n">
-        <v>745</v>
+        <v>1595</v>
       </c>
       <c r="C272" t="n">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="D272" t="n">
+        <v>29.53703703703704</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B273" t="n">
-        <v>1780</v>
+        <v>4200</v>
       </c>
       <c r="C273" t="n">
-        <v>45</v>
+        <v>105</v>
+      </c>
+      <c r="D273" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B274" t="n">
-        <v>1595</v>
+        <v>9500</v>
       </c>
       <c r="C274" t="n">
-        <v>54</v>
+        <v>150</v>
+      </c>
+      <c r="D274" t="n">
+        <v>63.33333333333334</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B275" t="n">
-        <v>4200</v>
+        <v>973</v>
       </c>
       <c r="C275" t="n">
-        <v>105</v>
+        <v>29</v>
+      </c>
+      <c r="D275" t="n">
+        <v>33.55172413793103</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B276" t="n">
-        <v>9500</v>
+        <v>1100</v>
       </c>
       <c r="C276" t="n">
-        <v>150</v>
+        <v>36</v>
+      </c>
+      <c r="D276" t="n">
+        <v>30.55555555555556</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B277" t="n">
-        <v>973</v>
+        <v>1851</v>
       </c>
       <c r="C277" t="n">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="D277" t="n">
+        <v>37.02</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B278" t="n">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="C278" t="n">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="D278" t="n">
+        <v>33.48484848484848</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B279" t="n">
-        <v>1851</v>
+        <v>1200</v>
       </c>
       <c r="C279" t="n">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="D279" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B280" t="n">
-        <v>1105</v>
+        <v>1704</v>
       </c>
       <c r="C280" t="n">
-        <v>33</v>
+        <v>56</v>
+      </c>
+      <c r="D280" t="n">
+        <v>30.42857142857143</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B281" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="C281" t="n">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="D281" t="n">
+        <v>53.33333333333334</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B282" t="n">
-        <v>1704</v>
+        <v>985</v>
       </c>
       <c r="C282" t="n">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="D282" t="n">
+        <v>28.97058823529412</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B283" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="C283" t="n">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="D283" t="n">
+        <v>34.48275862068966</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B284" t="n">
-        <v>985</v>
+        <v>1006</v>
       </c>
       <c r="C284" t="n">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="D284" t="n">
+        <v>38.69230769230769</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B285" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="C285" t="n">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="D285" t="n">
+        <v>29.72972972972973</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B286" t="n">
-        <v>1006</v>
+        <v>1220</v>
       </c>
       <c r="C286" t="n">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D286" t="n">
+        <v>38.125</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B287" t="n">
-        <v>1100</v>
+        <v>1230</v>
       </c>
       <c r="C287" t="n">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="D287" t="n">
+        <v>35.14285714285715</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B288" t="n">
-        <v>1220</v>
+        <v>1270</v>
       </c>
       <c r="C288" t="n">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="D288" t="n">
+        <v>42.33333333333334</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B289" t="n">
-        <v>1230</v>
+        <v>1280</v>
       </c>
       <c r="C289" t="n">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="D289" t="n">
+        <v>41.29032258064516</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B290" t="n">
-        <v>1270</v>
+        <v>1290</v>
       </c>
       <c r="C290" t="n">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="D290" t="n">
+        <v>33.94736842105263</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B291" t="n">
-        <v>1280</v>
+        <v>1300</v>
       </c>
       <c r="C291" t="n">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="D291" t="n">
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B292" t="n">
-        <v>1290</v>
+        <v>1340</v>
       </c>
       <c r="C292" t="n">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="D292" t="n">
+        <v>39.41176470588236</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B293" t="n">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="C293" t="n">
         <v>39</v>
       </c>
+      <c r="D293" t="n">
+        <v>34.61538461538461</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B294" t="n">
-        <v>1340</v>
+        <v>1380</v>
       </c>
       <c r="C294" t="n">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="D294" t="n">
+        <v>34.5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B295" t="n">
-        <v>1350</v>
+        <v>1390</v>
       </c>
       <c r="C295" t="n">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="D295" t="n">
+        <v>29.57446808510638</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B296" t="n">
-        <v>1380</v>
+        <v>1390</v>
       </c>
       <c r="C296" t="n">
         <v>40</v>
       </c>
+      <c r="D296" t="n">
+        <v>34.75</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B297" t="n">
-        <v>1390</v>
+        <v>1400</v>
       </c>
       <c r="C297" t="n">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="D297" t="n">
+        <v>26.92307692307692</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B298" t="n">
-        <v>1390</v>
+        <v>1400</v>
       </c>
       <c r="C298" t="n">
         <v>40</v>
       </c>
+      <c r="D298" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B299" t="n">
         <v>1400</v>
       </c>
       <c r="C299" t="n">
-        <v>52</v>
+        <v>33</v>
+      </c>
+      <c r="D299" t="n">
+        <v>42.42424242424242</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B300" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="C300" t="n">
         <v>40</v>
       </c>
+      <c r="D300" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B301" t="n">
-        <v>1400</v>
+        <v>1550</v>
       </c>
       <c r="C301" t="n">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="D301" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B302" t="n">
-        <v>1500</v>
+        <v>1570</v>
       </c>
       <c r="C302" t="n">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="D302" t="n">
+        <v>30.7843137254902</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B303" t="n">
-        <v>1550</v>
+        <v>1590</v>
       </c>
       <c r="C303" t="n">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="D303" t="n">
+        <v>35.33333333333334</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B304" t="n">
-        <v>1570</v>
+        <v>1600</v>
       </c>
       <c r="C304" t="n">
-        <v>51</v>
+        <v>35</v>
+      </c>
+      <c r="D304" t="n">
+        <v>45.71428571428572</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B305" t="n">
-        <v>1590</v>
+        <v>1600</v>
       </c>
       <c r="C305" t="n">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="D305" t="n">
+        <v>43.24324324324324</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B306" t="n">
-        <v>1600</v>
+        <v>1627</v>
       </c>
       <c r="C306" t="n">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="D306" t="n">
+        <v>35.3695652173913</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B307" t="n">
-        <v>1600</v>
+        <v>1690</v>
       </c>
       <c r="C307" t="n">
-        <v>37</v>
+        <v>56</v>
+      </c>
+      <c r="D307" t="n">
+        <v>30.17857142857143</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B308" t="n">
-        <v>1627</v>
+        <v>1696</v>
       </c>
       <c r="C308" t="n">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="D308" t="n">
+        <v>29.75438596491228</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B309" t="n">
-        <v>1690</v>
+        <v>1700</v>
       </c>
       <c r="C309" t="n">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="D309" t="n">
+        <v>37.77777777777778</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B310" t="n">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="C310" t="n">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="D310" t="n">
+        <v>36.17021276595744</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B311" t="n">
-        <v>1700</v>
+        <v>1705</v>
       </c>
       <c r="C311" t="n">
-        <v>45</v>
+        <v>75</v>
+      </c>
+      <c r="D311" t="n">
+        <v>22.73333333333333</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B312" t="n">
-        <v>1700</v>
+        <v>1750</v>
       </c>
       <c r="C312" t="n">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="D312" t="n">
+        <v>34.31372549019608</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B313" t="n">
-        <v>1705</v>
+        <v>1750</v>
       </c>
       <c r="C313" t="n">
-        <v>75</v>
+        <v>49</v>
+      </c>
+      <c r="D313" t="n">
+        <v>35.71428571428572</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B314" t="n">
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="C314" t="n">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="D314" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B315" t="n">
-        <v>1750</v>
+        <v>1830</v>
       </c>
       <c r="C315" t="n">
-        <v>49</v>
+        <v>64</v>
+      </c>
+      <c r="D315" t="n">
+        <v>28.59375</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B316" t="n">
-        <v>1800</v>
+        <v>1726</v>
       </c>
       <c r="C316" t="n">
-        <v>40</v>
+        <v>62</v>
+      </c>
+      <c r="D316" t="n">
+        <v>27.83870967741936</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B317" t="n">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="C317" t="n">
-        <v>64</v>
+        <v>35</v>
+      </c>
+      <c r="D317" t="n">
+        <v>52.85714285714285</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B318" t="n">
-        <v>1726</v>
+        <v>1875</v>
       </c>
       <c r="C318" t="n">
-        <v>62</v>
+        <v>42</v>
+      </c>
+      <c r="D318" t="n">
+        <v>44.64285714285715</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B319" t="n">
-        <v>1850</v>
+        <v>1900</v>
       </c>
       <c r="C319" t="n">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="D319" t="n">
+        <v>42.22222222222222</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B320" t="n">
-        <v>1875</v>
+        <v>1930</v>
       </c>
       <c r="C320" t="n">
-        <v>42</v>
+        <v>64</v>
+      </c>
+      <c r="D320" t="n">
+        <v>30.15625</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B321" t="n">
-        <v>1900</v>
+        <v>1990</v>
       </c>
       <c r="C321" t="n">
-        <v>45</v>
+        <v>61</v>
+      </c>
+      <c r="D321" t="n">
+        <v>32.62295081967213</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B322" t="n">
-        <v>1930</v>
+        <v>2000</v>
       </c>
       <c r="C322" t="n">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="D322" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B323" t="n">
-        <v>1990</v>
+        <v>2044</v>
       </c>
       <c r="C323" t="n">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="D323" t="n">
+        <v>31.9375</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B324" t="n">
-        <v>2000</v>
+        <v>2060</v>
       </c>
       <c r="C324" t="n">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="D324" t="n">
+        <v>29.85507246376812</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B325" t="n">
-        <v>2044</v>
+        <v>2100</v>
       </c>
       <c r="C325" t="n">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="D325" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B326" t="n">
-        <v>2060</v>
+        <v>1922</v>
       </c>
       <c r="C326" t="n">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="D326" t="n">
+        <v>26.32876712328767</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B327" t="n">
-        <v>2100</v>
+        <v>2190</v>
       </c>
       <c r="C327" t="n">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="D327" t="n">
+        <v>31.28571428571428</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B328" t="n">
-        <v>1922</v>
+        <v>2250</v>
       </c>
       <c r="C328" t="n">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="D328" t="n">
+        <v>34.09090909090909</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B329" t="n">
-        <v>2190</v>
+        <v>2250</v>
       </c>
       <c r="C329" t="n">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="D329" t="n">
+        <v>40.90909090909091</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B330" t="n">
-        <v>2250</v>
+        <v>2300</v>
       </c>
       <c r="C330" t="n">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="D330" t="n">
+        <v>35.38461538461539</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B331" t="n">
-        <v>2250</v>
+        <v>2300</v>
       </c>
       <c r="C331" t="n">
-        <v>55</v>
+        <v>80</v>
+      </c>
+      <c r="D331" t="n">
+        <v>28.75</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B332" t="n">
-        <v>2300</v>
+        <v>2309</v>
       </c>
       <c r="C332" t="n">
-        <v>65</v>
+        <v>88</v>
+      </c>
+      <c r="D332" t="n">
+        <v>26.23863636363636</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B333" t="n">
-        <v>2300</v>
+        <v>2450</v>
       </c>
       <c r="C333" t="n">
-        <v>80</v>
+        <v>54</v>
+      </c>
+      <c r="D333" t="n">
+        <v>45.37037037037037</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B334" t="n">
-        <v>2309</v>
+        <v>2471</v>
       </c>
       <c r="C334" t="n">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="D334" t="n">
+        <v>27.76404494382022</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B335" t="n">
-        <v>2450</v>
+        <v>2500</v>
       </c>
       <c r="C335" t="n">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="D335" t="n">
+        <v>48.07692307692308</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B336" t="n">
-        <v>2471</v>
+        <v>2500</v>
       </c>
       <c r="C336" t="n">
-        <v>89</v>
+        <v>32</v>
+      </c>
+      <c r="D336" t="n">
+        <v>78.125</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B337" t="n">
         <v>2500</v>
       </c>
       <c r="C337" t="n">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="D337" t="n">
+        <v>39.68253968253968</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B338" t="n">
         <v>2500</v>
       </c>
       <c r="C338" t="n">
-        <v>32</v>
+        <v>76</v>
+      </c>
+      <c r="D338" t="n">
+        <v>32.89473684210526</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B339" t="n">
-        <v>2500</v>
+        <v>2587</v>
       </c>
       <c r="C339" t="n">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="D339" t="n">
+        <v>35.43835616438356</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B340" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="C340" t="n">
-        <v>76</v>
+        <v>101</v>
+      </c>
+      <c r="D340" t="n">
+        <v>26.73267326732673</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B341" t="n">
-        <v>2587</v>
+        <v>2700</v>
       </c>
       <c r="C341" t="n">
-        <v>73</v>
+        <v>84</v>
+      </c>
+      <c r="D341" t="n">
+        <v>32.14285714285715</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B342" t="n">
-        <v>2700</v>
+        <v>2750</v>
       </c>
       <c r="C342" t="n">
-        <v>101</v>
+        <v>81</v>
+      </c>
+      <c r="D342" t="n">
+        <v>33.95061728395062</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B343" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="C343" t="n">
-        <v>84</v>
+        <v>68</v>
+      </c>
+      <c r="D343" t="n">
+        <v>41.1764705882353</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B344" t="n">
-        <v>2750</v>
+        <v>2800</v>
       </c>
       <c r="C344" t="n">
-        <v>81</v>
+        <v>60</v>
+      </c>
+      <c r="D344" t="n">
+        <v>46.66666666666666</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B345" t="n">
-        <v>2800</v>
+        <v>2886</v>
       </c>
       <c r="C345" t="n">
-        <v>68</v>
+        <v>85</v>
+      </c>
+      <c r="D345" t="n">
+        <v>33.95294117647059</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B346" t="n">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="C346" t="n">
-        <v>60</v>
+        <v>110</v>
+      </c>
+      <c r="D346" t="n">
+        <v>26.36363636363636</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B347" t="n">
-        <v>2886</v>
+        <v>3000</v>
       </c>
       <c r="C347" t="n">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="D347" t="n">
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B348" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="C348" t="n">
-        <v>110</v>
+        <v>101</v>
+      </c>
+      <c r="D348" t="n">
+        <v>29.7029702970297</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B349" t="n">
         <v>3000</v>
       </c>
       <c r="C349" t="n">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="D349" t="n">
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B350" t="n">
-        <v>3000</v>
+        <v>2840</v>
       </c>
       <c r="C350" t="n">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="D350" t="n">
+        <v>28.4</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B351" t="n">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="C351" t="n">
-        <v>90</v>
+        <v>100</v>
+      </c>
+      <c r="D351" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B352" t="n">
-        <v>2840</v>
+        <v>3179</v>
       </c>
       <c r="C352" t="n">
-        <v>100</v>
+        <v>72</v>
+      </c>
+      <c r="D352" t="n">
+        <v>44.15277777777778</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B353" t="n">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="C353" t="n">
-        <v>100</v>
+        <v>114</v>
+      </c>
+      <c r="D353" t="n">
+        <v>28.07017543859649</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B354" t="n">
-        <v>3179</v>
+        <v>3200</v>
       </c>
       <c r="C354" t="n">
-        <v>72</v>
+        <v>110</v>
+      </c>
+      <c r="D354" t="n">
+        <v>29.09090909090909</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B355" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="C355" t="n">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="D355" t="n">
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B356" t="n">
         <v>3200</v>
       </c>
       <c r="C356" t="n">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="D356" t="n">
+        <v>30.47619047619047</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B357" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="C357" t="n">
-        <v>110</v>
+        <v>101</v>
+      </c>
+      <c r="D357" t="n">
+        <v>32.67326732673267</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B358" t="n">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="C358" t="n">
-        <v>105</v>
+        <v>95</v>
+      </c>
+      <c r="D358" t="n">
+        <v>34.73684210526316</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B359" t="n">
         <v>3300</v>
       </c>
       <c r="C359" t="n">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="D359" t="n">
+        <v>30.55555555555556</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B360" t="n">
-        <v>3300</v>
+        <v>3460</v>
       </c>
       <c r="C360" t="n">
-        <v>95</v>
+        <v>103</v>
+      </c>
+      <c r="D360" t="n">
+        <v>33.59223300970874</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B361" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="C361" t="n">
-        <v>108</v>
+        <v>78</v>
+      </c>
+      <c r="D361" t="n">
+        <v>44.87179487179487</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B362" t="n">
-        <v>3460</v>
+        <v>3650</v>
       </c>
       <c r="C362" t="n">
-        <v>103</v>
+        <v>120</v>
+      </c>
+      <c r="D362" t="n">
+        <v>30.41666666666667</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B363" t="n">
-        <v>3500</v>
+        <v>3660</v>
       </c>
       <c r="C363" t="n">
-        <v>78</v>
+        <v>100</v>
+      </c>
+      <c r="D363" t="n">
+        <v>36.6</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B364" t="n">
-        <v>3650</v>
+        <v>3680</v>
       </c>
       <c r="C364" t="n">
-        <v>120</v>
+        <v>112</v>
+      </c>
+      <c r="D364" t="n">
+        <v>32.85714285714285</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B365" t="n">
-        <v>3660</v>
+        <v>3700</v>
       </c>
       <c r="C365" t="n">
-        <v>100</v>
+        <v>145</v>
+      </c>
+      <c r="D365" t="n">
+        <v>25.51724137931035</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B366" t="n">
-        <v>3680</v>
+        <v>4500</v>
       </c>
       <c r="C366" t="n">
-        <v>112</v>
+        <v>117</v>
+      </c>
+      <c r="D366" t="n">
+        <v>38.46153846153846</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B367" t="n">
-        <v>3700</v>
+        <v>4600</v>
       </c>
       <c r="C367" t="n">
-        <v>145</v>
+        <v>131</v>
+      </c>
+      <c r="D367" t="n">
+        <v>35.11450381679389</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B368" t="n">
-        <v>4500</v>
+        <v>4930</v>
       </c>
       <c r="C368" t="n">
         <v>117</v>
       </c>
+      <c r="D368" t="n">
+        <v>42.13675213675214</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B369" t="n">
-        <v>4600</v>
+        <v>4937</v>
       </c>
       <c r="C369" t="n">
-        <v>131</v>
+        <v>173</v>
+      </c>
+      <c r="D369" t="n">
+        <v>28.53757225433526</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B370" t="n">
-        <v>4930</v>
+        <v>5100</v>
       </c>
       <c r="C370" t="n">
-        <v>117</v>
+        <v>100</v>
+      </c>
+      <c r="D370" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B371" t="n">
-        <v>4937</v>
+        <v>5233</v>
       </c>
       <c r="C371" t="n">
-        <v>173</v>
+        <v>162</v>
+      </c>
+      <c r="D371" t="n">
+        <v>32.30246913580247</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B372" t="n">
-        <v>5100</v>
+        <v>5249</v>
       </c>
       <c r="C372" t="n">
-        <v>100</v>
+        <v>162</v>
+      </c>
+      <c r="D372" t="n">
+        <v>32.40123456790123</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B373" t="n">
-        <v>5233</v>
+        <v>5000</v>
       </c>
       <c r="C373" t="n">
-        <v>162</v>
+        <v>152</v>
+      </c>
+      <c r="D373" t="n">
+        <v>32.89473684210526</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B374" t="n">
-        <v>5249</v>
+        <v>5307</v>
       </c>
       <c r="C374" t="n">
-        <v>162</v>
+        <v>175</v>
+      </c>
+      <c r="D374" t="n">
+        <v>30.32571428571429</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B375" t="n">
-        <v>5000</v>
+        <v>730</v>
       </c>
       <c r="C375" t="n">
-        <v>152</v>
+        <v>11</v>
+      </c>
+      <c r="D375" t="n">
+        <v>66.36363636363636</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B376" t="n">
-        <v>5307</v>
+        <v>738</v>
       </c>
       <c r="C376" t="n">
-        <v>175</v>
+        <v>14</v>
+      </c>
+      <c r="D376" t="n">
+        <v>52.71428571428572</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B377" t="n">
-        <v>7450</v>
+        <v>821</v>
       </c>
       <c r="C377" t="n">
-        <v>180</v>
+        <v>18</v>
+      </c>
+      <c r="D377" t="n">
+        <v>45.61111111111111</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B378" t="n">
-        <v>730</v>
+        <v>850</v>
       </c>
       <c r="C378" t="n">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="D378" t="n">
+        <v>53.125</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B379" t="n">
-        <v>738</v>
+        <v>854</v>
       </c>
       <c r="C379" t="n">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="D379" t="n">
+        <v>34.16</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B380" t="n">
-        <v>821</v>
+        <v>910</v>
       </c>
       <c r="C380" t="n">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="D380" t="n">
+        <v>37.91666666666666</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B381" t="n">
-        <v>850</v>
+        <v>940</v>
       </c>
       <c r="C381" t="n">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D381" t="n">
+        <v>49.47368421052632</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B382" t="n">
-        <v>854</v>
+        <v>950</v>
       </c>
       <c r="C382" t="n">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="D382" t="n">
+        <v>47.5</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B383" t="n">
-        <v>910</v>
+        <v>950</v>
       </c>
       <c r="C383" t="n">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="D383" t="n">
+        <v>45.23809523809524</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B384" t="n">
-        <v>940</v>
+        <v>976</v>
       </c>
       <c r="C384" t="n">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="D384" t="n">
+        <v>42.43478260869565</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B385" t="n">
-        <v>950</v>
+        <v>990</v>
       </c>
       <c r="C385" t="n">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="D385" t="n">
+        <v>36.66666666666666</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B386" t="n">
-        <v>950</v>
+        <v>1190</v>
       </c>
       <c r="C386" t="n">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="D386" t="n">
+        <v>41.03448275862069</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B387" t="n">
-        <v>976</v>
+        <v>1095</v>
       </c>
       <c r="C387" t="n">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="D387" t="n">
+        <v>36.5</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B388" t="n">
-        <v>990</v>
+        <v>1210</v>
       </c>
       <c r="C388" t="n">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="D388" t="n">
+        <v>30.25</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B389" t="n">
-        <v>1190</v>
+        <v>1250</v>
       </c>
       <c r="C389" t="n">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="D389" t="n">
+        <v>44.64285714285715</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B390" t="n">
-        <v>1095</v>
+        <v>1255</v>
       </c>
       <c r="C390" t="n">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="D390" t="n">
+        <v>52.29166666666666</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B391" t="n">
-        <v>1210</v>
+        <v>1255</v>
       </c>
       <c r="C391" t="n">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="D391" t="n">
+        <v>52.29166666666666</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B392" t="n">
-        <v>1250</v>
+        <v>1300</v>
       </c>
       <c r="C392" t="n">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="D392" t="n">
+        <v>40.625</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B393" t="n">
-        <v>1255</v>
+        <v>1380</v>
       </c>
       <c r="C393" t="n">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="D393" t="n">
+        <v>43.125</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B394" t="n">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="C394" t="n">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="D394" t="n">
+        <v>35.71428571428572</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B395" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="C395" t="n">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="D395" t="n">
+        <v>44.11764705882353</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B396" t="n">
-        <v>1380</v>
+        <v>1510</v>
       </c>
       <c r="C396" t="n">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D396" t="n">
+        <v>52.06896551724138</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B397" t="n">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="C397" t="n">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="D397" t="n">
+        <v>51.66666666666666</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B398" t="n">
-        <v>1500</v>
+        <v>1560</v>
       </c>
       <c r="C398" t="n">
-        <v>34</v>
+        <v>50</v>
+      </c>
+      <c r="D398" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B399" t="n">
-        <v>1510</v>
+        <v>1580</v>
       </c>
       <c r="C399" t="n">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="D399" t="n">
+        <v>45.14285714285715</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B400" t="n">
-        <v>1550</v>
+        <v>1640</v>
       </c>
       <c r="C400" t="n">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="D400" t="n">
+        <v>34.8936170212766</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B401" t="n">
-        <v>1560</v>
+        <v>1650</v>
       </c>
       <c r="C401" t="n">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="D401" t="n">
+        <v>41.25</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B402" t="n">
-        <v>1580</v>
+        <v>1665</v>
       </c>
       <c r="C402" t="n">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="D402" t="n">
+        <v>48.97058823529412</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B403" t="n">
-        <v>1640</v>
+        <v>1865</v>
       </c>
       <c r="C403" t="n">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="D403" t="n">
+        <v>33.90909090909091</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B404" t="n">
-        <v>1650</v>
+        <v>1920</v>
       </c>
       <c r="C404" t="n">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="D404" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B405" t="n">
-        <v>1665</v>
+        <v>2000</v>
       </c>
       <c r="C405" t="n">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="D405" t="n">
+        <v>47.61904761904762</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B406" t="n">
-        <v>1865</v>
+        <v>2000</v>
       </c>
       <c r="C406" t="n">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="D406" t="n">
+        <v>48.78048780487805</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B407" t="n">
-        <v>1920</v>
+        <v>2130</v>
       </c>
       <c r="C407" t="n">
-        <v>64</v>
+        <v>73</v>
+      </c>
+      <c r="D407" t="n">
+        <v>29.17808219178082</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B408" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="C408" t="n">
-        <v>42</v>
+        <v>57</v>
+      </c>
+      <c r="D408" t="n">
+        <v>38.59649122807018</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B409" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="C409" t="n">
-        <v>41</v>
+        <v>80</v>
+      </c>
+      <c r="D409" t="n">
+        <v>28.75</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B410" t="n">
-        <v>2130</v>
+        <v>2500</v>
       </c>
       <c r="C410" t="n">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="D410" t="n">
+        <v>41.66666666666666</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B411" t="n">
-        <v>2200</v>
+        <v>3750</v>
       </c>
       <c r="C411" t="n">
-        <v>57</v>
+        <v>70</v>
+      </c>
+      <c r="D411" t="n">
+        <v>53.57142857142857</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B412" t="n">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="C412" t="n">
-        <v>80</v>
+        <v>138</v>
+      </c>
+      <c r="D412" t="n">
+        <v>27.53623188405797</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B413" t="n">
-        <v>2500</v>
+        <v>4100</v>
       </c>
       <c r="C413" t="n">
-        <v>60</v>
+        <v>127</v>
+      </c>
+      <c r="D413" t="n">
+        <v>32.28346456692913</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B414" t="n">
-        <v>3750</v>
+        <v>4300</v>
       </c>
       <c r="C414" t="n">
-        <v>70</v>
+        <v>148</v>
+      </c>
+      <c r="D414" t="n">
+        <v>29.05405405405405</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B415" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="C415" t="n">
-        <v>138</v>
+        <v>115</v>
+      </c>
+      <c r="D415" t="n">
+        <v>39.1304347826087</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B416" t="n">
-        <v>4100</v>
+        <v>637</v>
       </c>
       <c r="C416" t="n">
-        <v>127</v>
+        <v>14</v>
+      </c>
+      <c r="D416" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B417" t="n">
-        <v>4300</v>
+        <v>680</v>
       </c>
       <c r="C417" t="n">
-        <v>148</v>
+        <v>14</v>
+      </c>
+      <c r="D417" t="n">
+        <v>48.57142857142857</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B418" t="n">
-        <v>4500</v>
+        <v>700</v>
       </c>
       <c r="C418" t="n">
-        <v>115</v>
+        <v>18</v>
+      </c>
+      <c r="D418" t="n">
+        <v>38.88888888888889</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B419" t="n">
-        <v>637</v>
+        <v>960</v>
       </c>
       <c r="C419" t="n">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="D419" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B420" t="n">
-        <v>680</v>
+        <v>775</v>
       </c>
       <c r="C420" t="n">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="D420" t="n">
+        <v>38.75</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B421" t="n">
-        <v>700</v>
+        <v>1250</v>
       </c>
       <c r="C421" t="n">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="D421" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B422" t="n">
-        <v>960</v>
+        <v>1380</v>
       </c>
       <c r="C422" t="n">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="D422" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B423" t="n">
-        <v>775</v>
+        <v>1630</v>
       </c>
       <c r="C423" t="n">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="D423" t="n">
+        <v>30.18518518518519</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B424" t="n">
-        <v>1250</v>
+        <v>1650</v>
       </c>
       <c r="C424" t="n">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="D424" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B425" t="n">
-        <v>1380</v>
+        <v>1765</v>
       </c>
       <c r="C425" t="n">
-        <v>30</v>
+        <v>62</v>
+      </c>
+      <c r="D425" t="n">
+        <v>28.46774193548387</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B426" t="n">
-        <v>1630</v>
+        <v>1900</v>
       </c>
       <c r="C426" t="n">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="D426" t="n">
+        <v>29.6875</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B427" t="n">
-        <v>1650</v>
+        <v>1787</v>
       </c>
       <c r="C427" t="n">
-        <v>50</v>
+        <v>77</v>
+      </c>
+      <c r="D427" t="n">
+        <v>23.20779220779221</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B428" t="n">
-        <v>1765</v>
+        <v>1920</v>
       </c>
       <c r="C428" t="n">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="D428" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B429" t="n">
-        <v>1900</v>
+        <v>2132</v>
       </c>
       <c r="C429" t="n">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="D429" t="n">
+        <v>30.89855072463768</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B430" t="n">
-        <v>1787</v>
+        <v>2132</v>
       </c>
       <c r="C430" t="n">
-        <v>77</v>
+        <v>69</v>
+      </c>
+      <c r="D430" t="n">
+        <v>30.89855072463768</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B431" t="n">
-        <v>1920</v>
+        <v>2200</v>
       </c>
       <c r="C431" t="n">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="D431" t="n">
+        <v>36.66666666666666</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B432" t="n">
-        <v>2132</v>
+        <v>2272</v>
       </c>
       <c r="C432" t="n">
         <v>69</v>
       </c>
+      <c r="D432" t="n">
+        <v>32.92753623188405</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B433" t="n">
-        <v>2132</v>
+        <v>2400</v>
       </c>
       <c r="C433" t="n">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="D433" t="n">
+        <v>34.28571428571428</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B434" t="n">
-        <v>2200</v>
+        <v>2350</v>
       </c>
       <c r="C434" t="n">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="D434" t="n">
+        <v>33.57142857142857</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B435" t="n">
-        <v>2272</v>
+        <v>2657</v>
       </c>
       <c r="C435" t="n">
-        <v>69</v>
+        <v>40</v>
+      </c>
+      <c r="D435" t="n">
+        <v>66.425</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B436" t="n">
-        <v>2400</v>
+        <v>2999</v>
       </c>
       <c r="C436" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="D436" t="n">
+        <v>39.46052631578947</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B437" t="n">
-        <v>2350</v>
+        <v>3000</v>
       </c>
       <c r="C437" t="n">
-        <v>70</v>
+        <v>80</v>
+      </c>
+      <c r="D437" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B438" t="n">
-        <v>2657</v>
+        <v>3460</v>
       </c>
       <c r="C438" t="n">
-        <v>40</v>
+        <v>103</v>
+      </c>
+      <c r="D438" t="n">
+        <v>33.59223300970874</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B439" t="n">
-        <v>2999</v>
+        <v>3600</v>
       </c>
       <c r="C439" t="n">
-        <v>76</v>
+        <v>124</v>
+      </c>
+      <c r="D439" t="n">
+        <v>29.03225806451613</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B440" t="n">
-        <v>3000</v>
+        <v>2290</v>
       </c>
       <c r="C440" t="n">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="D440" t="n">
+        <v>32.71428571428572</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B441" t="n">
-        <v>3460</v>
+        <v>2927</v>
       </c>
       <c r="C441" t="n">
-        <v>103</v>
+        <v>116</v>
+      </c>
+      <c r="D441" t="n">
+        <v>25.23275862068965</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B442" t="n">
-        <v>3600</v>
+        <v>700</v>
       </c>
       <c r="C442" t="n">
-        <v>124</v>
+        <v>14</v>
+      </c>
+      <c r="D442" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B443" t="n">
-        <v>20000</v>
+        <v>755</v>
       </c>
       <c r="C443" t="n">
-        <v>180</v>
+        <v>19</v>
+      </c>
+      <c r="D443" t="n">
+        <v>39.73684210526316</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B444" t="n">
-        <v>2290</v>
+        <v>990</v>
       </c>
       <c r="C444" t="n">
-        <v>70</v>
+        <v>24</v>
+      </c>
+      <c r="D444" t="n">
+        <v>41.25</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B445" t="n">
-        <v>2927</v>
+        <v>1058</v>
       </c>
       <c r="C445" t="n">
-        <v>116</v>
+        <v>21</v>
+      </c>
+      <c r="D445" t="n">
+        <v>50.38095238095238</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B446" t="n">
-        <v>700</v>
+        <v>1095</v>
       </c>
       <c r="C446" t="n">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="D446" t="n">
+        <v>54.75</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B447" t="n">
-        <v>755</v>
+        <v>1100</v>
       </c>
       <c r="C447" t="n">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="D447" t="n">
+        <v>29.72972972972973</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B448" t="n">
-        <v>990</v>
+        <v>1280</v>
       </c>
       <c r="C448" t="n">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="D448" t="n">
+        <v>44.13793103448276</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B449" t="n">
-        <v>1058</v>
+        <v>1350</v>
       </c>
       <c r="C449" t="n">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D449" t="n">
+        <v>38.57142857142857</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B450" t="n">
-        <v>1095</v>
+        <v>1400</v>
       </c>
       <c r="C450" t="n">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="D450" t="n">
+        <v>31.11111111111111</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B451" t="n">
-        <v>1100</v>
+        <v>1550</v>
       </c>
       <c r="C451" t="n">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="D451" t="n">
+        <v>46.96969696969697</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B452" t="n">
-        <v>1280</v>
+        <v>1900</v>
       </c>
       <c r="C452" t="n">
-        <v>29</v>
+        <v>64</v>
+      </c>
+      <c r="D452" t="n">
+        <v>29.6875</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B453" t="n">
-        <v>1350</v>
+        <v>2200</v>
       </c>
       <c r="C453" t="n">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="D453" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B454" t="n">
-        <v>1400</v>
+        <v>3140</v>
       </c>
       <c r="C454" t="n">
-        <v>45</v>
+        <v>100</v>
+      </c>
+      <c r="D454" t="n">
+        <v>31.4</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B455" t="n">
-        <v>1550</v>
+        <v>600</v>
       </c>
       <c r="C455" t="n">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="D455" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B456" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="C456" t="n">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="D456" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B457" t="n">
-        <v>2200</v>
+        <v>890</v>
       </c>
       <c r="C457" t="n">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="D457" t="n">
+        <v>44.5</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B458" t="n">
-        <v>3140</v>
+        <v>1050</v>
       </c>
       <c r="C458" t="n">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="D458" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B459" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="C459" t="n">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="D459" t="n">
+        <v>35.48387096774194</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B460" t="n">
-        <v>600</v>
+        <v>1650</v>
       </c>
       <c r="C460" t="n">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="D460" t="n">
+        <v>33.67346938775511</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B461" t="n">
-        <v>890</v>
+        <v>2090</v>
       </c>
       <c r="C461" t="n">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="D461" t="n">
+        <v>28.63013698630137</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B462" t="n">
-        <v>1050</v>
+        <v>6300</v>
       </c>
       <c r="C462" t="n">
-        <v>30</v>
+        <v>112</v>
+      </c>
+      <c r="D462" t="n">
+        <v>56.25</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B463" t="n">
-        <v>1100</v>
+        <v>930</v>
       </c>
       <c r="C463" t="n">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="D463" t="n">
+        <v>58.125</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B464" t="n">
-        <v>1650</v>
+        <v>1980</v>
       </c>
       <c r="C464" t="n">
-        <v>49</v>
+        <v>84</v>
+      </c>
+      <c r="D464" t="n">
+        <v>23.57142857142857</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B465" t="n">
-        <v>2090</v>
+        <v>885</v>
       </c>
       <c r="C465" t="n">
-        <v>73</v>
+        <v>23</v>
+      </c>
+      <c r="D465" t="n">
+        <v>38.47826086956522</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B466" t="n">
-        <v>6300</v>
+        <v>1060</v>
       </c>
       <c r="C466" t="n">
-        <v>112</v>
+        <v>47</v>
+      </c>
+      <c r="D466" t="n">
+        <v>22.5531914893617</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B467" t="n">
-        <v>930</v>
+        <v>1200</v>
       </c>
       <c r="C467" t="n">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="D467" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B468" t="n">
-        <v>1980</v>
+        <v>1500</v>
       </c>
       <c r="C468" t="n">
-        <v>84</v>
+        <v>38</v>
+      </c>
+      <c r="D468" t="n">
+        <v>39.47368421052632</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B469" t="n">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="C469" t="n">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="D469" t="n">
+        <v>44.5</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B470" t="n">
-        <v>1060</v>
+        <v>1300</v>
       </c>
       <c r="C470" t="n">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="D470" t="n">
+        <v>30.95238095238095</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B471" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="C471" t="n">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="D471" t="n">
+        <v>31.03448275862069</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B472" t="n">
-        <v>1500</v>
+        <v>1150</v>
       </c>
       <c r="C472" t="n">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="D472" t="n">
+        <v>47.91666666666666</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B473" t="n">
-        <v>890</v>
+        <v>840</v>
       </c>
       <c r="C473" t="n">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D473" t="n">
+        <v>38.18181818181818</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B474" t="n">
-        <v>1300</v>
+        <v>928</v>
       </c>
       <c r="C474" t="n">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="D474" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B475" t="n">
-        <v>900</v>
+        <v>981</v>
       </c>
       <c r="C475" t="n">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="D475" t="n">
+        <v>32.7</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B476" t="n">
-        <v>1150</v>
+        <v>1180</v>
       </c>
       <c r="C476" t="n">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="D476" t="n">
+        <v>38.06451612903226</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B477" t="n">
-        <v>840</v>
+        <v>1198</v>
       </c>
       <c r="C477" t="n">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D477" t="n">
+        <v>36.3030303030303</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B478" t="n">
-        <v>928</v>
+        <v>1450</v>
       </c>
       <c r="C478" t="n">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="D478" t="n">
+        <v>30.85106382978723</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B479" t="n">
-        <v>981</v>
+        <v>3000</v>
       </c>
       <c r="C479" t="n">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="D479" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B480" t="n">
-        <v>1180</v>
+        <v>875</v>
       </c>
       <c r="C480" t="n">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="D480" t="n">
+        <v>48.61111111111111</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B481" t="n">
-        <v>1198</v>
+        <v>998</v>
       </c>
       <c r="C481" t="n">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="D481" t="n">
+        <v>29.35294117647059</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B482" t="n">
-        <v>1450</v>
+        <v>1000</v>
       </c>
       <c r="C482" t="n">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="D482" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B483" t="n">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="C483" t="n">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="D483" t="n">
+        <v>40.32258064516129</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B484" t="n">
-        <v>875</v>
+        <v>1480</v>
       </c>
       <c r="C484" t="n">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="D484" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B485" t="n">
-        <v>998</v>
+        <v>1900</v>
       </c>
       <c r="C485" t="n">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="D485" t="n">
+        <v>41.30434782608695</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B486" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="C486" t="n">
-        <v>25</v>
+        <v>70</v>
+      </c>
+      <c r="D486" t="n">
+        <v>35.71428571428572</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B487" t="n">
-        <v>1250</v>
+        <v>950</v>
       </c>
       <c r="C487" t="n">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="D487" t="n">
+        <v>33.92857142857143</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B488" t="n">
-        <v>1480</v>
+        <v>1180</v>
       </c>
       <c r="C488" t="n">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="D488" t="n">
+        <v>43.7037037037037</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B489" t="n">
-        <v>1900</v>
+        <v>1550</v>
       </c>
       <c r="C489" t="n">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="D489" t="n">
+        <v>38.75</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B490" t="n">
-        <v>2500</v>
+        <v>1333</v>
       </c>
       <c r="C490" t="n">
-        <v>70</v>
+        <v>41</v>
+      </c>
+      <c r="D490" t="n">
+        <v>32.51219512195122</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B491" t="n">
-        <v>950</v>
+        <v>1580</v>
       </c>
       <c r="C491" t="n">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="D491" t="n">
+        <v>39.5</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B492" t="n">
-        <v>1180</v>
+        <v>850</v>
       </c>
       <c r="C492" t="n">
         <v>27</v>
       </c>
+      <c r="D492" t="n">
+        <v>31.48148148148148</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B493" t="n">
-        <v>1550</v>
+        <v>488</v>
       </c>
       <c r="C493" t="n">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="D493" t="n">
+        <v>37.53846153846154</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B494" t="n">
-        <v>1333</v>
+        <v>619</v>
       </c>
       <c r="C494" t="n">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="D494" t="n">
+        <v>34.38888888888889</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B495" t="n">
-        <v>1580</v>
+        <v>820</v>
       </c>
       <c r="C495" t="n">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="D495" t="n">
+        <v>35.65217391304348</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B496" t="n">
-        <v>850</v>
+        <v>1350</v>
       </c>
       <c r="C496" t="n">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="D496" t="n">
+        <v>42.1875</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B497" t="n">
-        <v>488</v>
+        <v>1475</v>
       </c>
       <c r="C497" t="n">
-        <v>13</v>
+        <v>57</v>
+      </c>
+      <c r="D497" t="n">
+        <v>25.87719298245614</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B498" t="n">
-        <v>619</v>
+        <v>1397</v>
       </c>
       <c r="C498" t="n">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="D498" t="n">
+        <v>36.76315789473684</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B499" t="n">
-        <v>820</v>
+        <v>1460</v>
       </c>
       <c r="C499" t="n">
-        <v>23</v>
+        <v>52</v>
+      </c>
+      <c r="D499" t="n">
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B500" t="n">
-        <v>1350</v>
+        <v>3200</v>
       </c>
       <c r="C500" t="n">
-        <v>32</v>
+        <v>114</v>
+      </c>
+      <c r="D500" t="n">
+        <v>28.07017543859649</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B501" t="n">
-        <v>1475</v>
+        <v>5000</v>
       </c>
       <c r="C501" t="n">
-        <v>57</v>
+        <v>136</v>
+      </c>
+      <c r="D501" t="n">
+        <v>36.76470588235294</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B502" t="n">
-        <v>1397</v>
+        <v>790</v>
       </c>
       <c r="C502" t="n">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="D502" t="n">
+        <v>35.90909090909091</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B503" t="n">
-        <v>1460</v>
+        <v>800</v>
       </c>
       <c r="C503" t="n">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D503" t="n">
+        <v>57.14285714285715</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B504" t="n">
-        <v>3200</v>
+        <v>810</v>
       </c>
       <c r="C504" t="n">
-        <v>114</v>
+        <v>18</v>
+      </c>
+      <c r="D504" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B505" t="n">
-        <v>5000</v>
+        <v>940</v>
       </c>
       <c r="C505" t="n">
-        <v>136</v>
+        <v>26</v>
+      </c>
+      <c r="D505" t="n">
+        <v>36.15384615384615</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B506" t="n">
-        <v>790</v>
+        <v>898</v>
       </c>
       <c r="C506" t="n">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="D506" t="n">
+        <v>33.25925925925926</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B507" t="n">
-        <v>800</v>
+        <v>1137</v>
       </c>
       <c r="C507" t="n">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="D507" t="n">
+        <v>34.45454545454545</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B508" t="n">
         <v>810</v>
@@ -6021,10 +7544,13 @@
       <c r="C508" t="n">
         <v>18</v>
       </c>
+      <c r="D508" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B509" t="n">
         <v>940</v>
@@ -6032,10 +7558,13 @@
       <c r="C509" t="n">
         <v>26</v>
       </c>
+      <c r="D509" t="n">
+        <v>36.15384615384615</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B510" t="n">
         <v>898</v>
@@ -6043,10 +7572,13 @@
       <c r="C510" t="n">
         <v>27</v>
       </c>
+      <c r="D510" t="n">
+        <v>33.25925925925926</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B511" t="n">
         <v>1137</v>
@@ -6054,291 +7586,316 @@
       <c r="C511" t="n">
         <v>33</v>
       </c>
+      <c r="D511" t="n">
+        <v>34.45454545454545</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B512" t="n">
-        <v>810</v>
+        <v>1600</v>
       </c>
       <c r="C512" t="n">
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="D512" t="n">
+        <v>26.66666666666667</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B513" t="n">
-        <v>940</v>
+        <v>2097</v>
       </c>
       <c r="C513" t="n">
-        <v>26</v>
+        <v>58</v>
+      </c>
+      <c r="D513" t="n">
+        <v>36.1551724137931</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B514" t="n">
-        <v>898</v>
+        <v>733</v>
       </c>
       <c r="C514" t="n">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="D514" t="n">
+        <v>36.65</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B515" t="n">
-        <v>1137</v>
+        <v>1166</v>
       </c>
       <c r="C515" t="n">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="D515" t="n">
+        <v>43.18518518518518</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B516" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="C516" t="n">
-        <v>60</v>
+        <v>38</v>
+      </c>
+      <c r="D516" t="n">
+        <v>39.47368421052632</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B517" t="n">
-        <v>2097</v>
+        <v>1900</v>
       </c>
       <c r="C517" t="n">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="D517" t="n">
+        <v>42.22222222222222</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B518" t="n">
-        <v>733</v>
+        <v>1900</v>
       </c>
       <c r="C518" t="n">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="D518" t="n">
+        <v>29.6875</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B519" t="n">
-        <v>1166</v>
+        <v>1950</v>
       </c>
       <c r="C519" t="n">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="D519" t="n">
+        <v>43.33333333333334</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B520" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="C520" t="n">
-        <v>38</v>
+        <v>65</v>
+      </c>
+      <c r="D520" t="n">
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B521" t="n">
-        <v>1900</v>
+        <v>2950</v>
       </c>
       <c r="C521" t="n">
-        <v>45</v>
+        <v>95</v>
+      </c>
+      <c r="D521" t="n">
+        <v>31.05263157894737</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B522" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="C522" t="n">
-        <v>64</v>
+        <v>20</v>
+      </c>
+      <c r="D522" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B523" t="n">
-        <v>1950</v>
+        <v>1300</v>
       </c>
       <c r="C523" t="n">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="D523" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B524" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="C524" t="n">
-        <v>65</v>
+        <v>20</v>
+      </c>
+      <c r="D524" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B525" t="n">
-        <v>2950</v>
+        <v>1690</v>
       </c>
       <c r="C525" t="n">
-        <v>95</v>
+        <v>58</v>
+      </c>
+      <c r="D525" t="n">
+        <v>29.13793103448276</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B526" t="n">
-        <v>1200</v>
+        <v>1940</v>
       </c>
       <c r="C526" t="n">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="D526" t="n">
+        <v>48.5</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B527" t="n">
-        <v>1300</v>
+        <v>2100</v>
       </c>
       <c r="C527" t="n">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="D527" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B528" t="n">
-        <v>1400</v>
+        <v>2490</v>
       </c>
       <c r="C528" t="n">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="D528" t="n">
+        <v>35.57142857142857</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B529" t="n">
-        <v>1690</v>
+        <v>1490</v>
       </c>
       <c r="C529" t="n">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="D529" t="n">
+        <v>31.04166666666667</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B530" t="n">
-        <v>1940</v>
+        <v>2020</v>
       </c>
       <c r="C530" t="n">
-        <v>40</v>
+        <v>58</v>
+      </c>
+      <c r="D530" t="n">
+        <v>34.82758620689656</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B531" t="n">
-        <v>2100</v>
+        <v>2050</v>
       </c>
       <c r="C531" t="n">
         <v>70</v>
       </c>
+      <c r="D531" t="n">
+        <v>29.28571428571428</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B532" t="n">
-        <v>2490</v>
+        <v>1220</v>
       </c>
       <c r="C532" t="n">
-        <v>70</v>
+        <v>42</v>
+      </c>
+      <c r="D532" t="n">
+        <v>29.04761904761905</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B533" t="n">
-        <v>1490</v>
+        <v>1610</v>
       </c>
       <c r="C533" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B534" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C534" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B535" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C535" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B536" t="n">
-        <v>1220</v>
-      </c>
-      <c r="C536" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B537" t="n">
-        <v>1610</v>
-      </c>
-      <c r="C537" t="n">
         <v>44</v>
+      </c>
+      <c r="D533" t="n">
+        <v>36.59090909090909</v>
       </c>
     </row>
   </sheetData>

--- a/data/house/house.xlsx
+++ b/data/house/house.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D533"/>
+  <dimension ref="A1:D537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2622,469 +2622,469 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>775</v>
+        <v>7450</v>
       </c>
       <c r="C157" t="n">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="D157" t="n">
-        <v>38.75</v>
+        <v>41.38888888888889</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>816</v>
+        <v>7280</v>
       </c>
       <c r="C158" t="n">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="D158" t="n">
-        <v>42.94736842105263</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B159" t="n">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="C159" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D159" t="n">
-        <v>42.10526315789474</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B160" t="n">
-        <v>900</v>
+        <v>816</v>
       </c>
       <c r="C160" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D160" t="n">
-        <v>50</v>
+        <v>42.94736842105263</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B161" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="C161" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D161" t="n">
-        <v>32.14285714285715</v>
+        <v>42.10526315789474</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B162" t="n">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="C162" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D162" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B163" t="n">
-        <v>960</v>
+        <v>900</v>
       </c>
       <c r="C163" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D163" t="n">
-        <v>45.71428571428572</v>
+        <v>32.14285714285715</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B164" t="n">
-        <v>966</v>
+        <v>888</v>
       </c>
       <c r="C164" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D164" t="n">
-        <v>32.2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B165" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="C165" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D165" t="n">
-        <v>52.63157894736842</v>
+        <v>45.71428571428572</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B166" t="n">
-        <v>1040</v>
+        <v>966</v>
       </c>
       <c r="C166" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D166" t="n">
-        <v>40</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B167" t="n">
-        <v>1048</v>
+        <v>1000</v>
       </c>
       <c r="C167" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D167" t="n">
-        <v>33.80645161290322</v>
+        <v>52.63157894736842</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B168" t="n">
-        <v>1072</v>
+        <v>1040</v>
       </c>
       <c r="C168" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D168" t="n">
-        <v>33.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B169" t="n">
-        <v>1090</v>
+        <v>1048</v>
       </c>
       <c r="C169" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D169" t="n">
-        <v>54.5</v>
+        <v>33.80645161290322</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B170" t="n">
-        <v>1100</v>
+        <v>1072</v>
       </c>
       <c r="C170" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D170" t="n">
-        <v>42.30769230769231</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B171" t="n">
-        <v>1150</v>
+        <v>1090</v>
       </c>
       <c r="C171" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D171" t="n">
-        <v>54.76190476190476</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B172" t="n">
-        <v>1180</v>
+        <v>1100</v>
       </c>
       <c r="C172" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D172" t="n">
-        <v>51.30434782608695</v>
+        <v>42.30769230769231</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B173" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="C173" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D173" t="n">
-        <v>40</v>
+        <v>54.76190476190476</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B174" t="n">
-        <v>1200</v>
+        <v>1180</v>
       </c>
       <c r="C174" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D174" t="n">
-        <v>37.5</v>
+        <v>51.30434782608695</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B175" t="n">
         <v>1200</v>
       </c>
       <c r="C175" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D175" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B176" t="n">
         <v>1200</v>
       </c>
       <c r="C176" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D176" t="n">
-        <v>60</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B177" t="n">
-        <v>1218</v>
+        <v>1200</v>
       </c>
       <c r="C177" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D177" t="n">
-        <v>43.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B178" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="C178" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D178" t="n">
-        <v>59.52380952380953</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B179" t="n">
-        <v>1250</v>
+        <v>1218</v>
       </c>
       <c r="C179" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D179" t="n">
-        <v>36.76470588235294</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B180" t="n">
-        <v>1300</v>
+        <v>1250</v>
       </c>
       <c r="C180" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D180" t="n">
-        <v>59.09090909090909</v>
+        <v>59.52380952380953</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B181" t="n">
-        <v>1329</v>
+        <v>1250</v>
       </c>
       <c r="C181" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D181" t="n">
-        <v>37.97142857142857</v>
+        <v>36.76470588235294</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B182" t="n">
-        <v>1340</v>
+        <v>1300</v>
       </c>
       <c r="C182" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D182" t="n">
-        <v>44.66666666666666</v>
+        <v>59.09090909090909</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B183" t="n">
-        <v>1500</v>
+        <v>1329</v>
       </c>
       <c r="C183" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D183" t="n">
-        <v>46.875</v>
+        <v>37.97142857142857</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B184" t="n">
-        <v>1500</v>
+        <v>1340</v>
       </c>
       <c r="C184" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D184" t="n">
-        <v>46.875</v>
+        <v>44.66666666666666</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B185" t="n">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="C185" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D185" t="n">
-        <v>26.27118644067797</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B186" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="C186" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D186" t="n">
-        <v>38</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B187" t="n">
-        <v>1910</v>
+        <v>1550</v>
       </c>
       <c r="C187" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D187" t="n">
-        <v>26.90140845070422</v>
+        <v>26.27118644067797</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B188" t="n">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="C188" t="n">
         <v>50</v>
       </c>
       <c r="D188" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B189" t="n">
-        <v>2950</v>
+        <v>1910</v>
       </c>
       <c r="C189" t="n">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D189" t="n">
-        <v>35.97560975609756</v>
+        <v>26.90140845070422</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B190" t="n">
         <v>2700</v>
@@ -3098,357 +3098,357 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B191" t="n">
-        <v>6500</v>
+        <v>2950</v>
       </c>
       <c r="C191" t="n">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="D191" t="n">
-        <v>40.37267080745342</v>
+        <v>35.97560975609756</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B192" t="n">
-        <v>7500</v>
+        <v>2700</v>
       </c>
       <c r="C192" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D192" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B193" t="n">
-        <v>1048</v>
+        <v>6500</v>
       </c>
       <c r="C193" t="n">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="D193" t="n">
-        <v>33.80645161290322</v>
+        <v>40.37267080745342</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B194" t="n">
-        <v>1650</v>
+        <v>7500</v>
       </c>
       <c r="C194" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="D194" t="n">
-        <v>36.66666666666666</v>
+        <v>50</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B195" t="n">
-        <v>1100</v>
+        <v>1048</v>
       </c>
       <c r="C195" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D195" t="n">
-        <v>37.93103448275862</v>
+        <v>33.80645161290322</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B196" t="n">
-        <v>1133</v>
+        <v>1650</v>
       </c>
       <c r="C196" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D196" t="n">
-        <v>34.33333333333334</v>
+        <v>36.66666666666666</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B197" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="C197" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D197" t="n">
-        <v>33.33333333333334</v>
+        <v>37.93103448275862</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B198" t="n">
-        <v>1530</v>
+        <v>1133</v>
       </c>
       <c r="C198" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D198" t="n">
-        <v>43.71428571428572</v>
+        <v>34.33333333333334</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B199" t="n">
-        <v>1520</v>
+        <v>1500</v>
       </c>
       <c r="C199" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D199" t="n">
-        <v>27.63636363636364</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B200" t="n">
-        <v>1600</v>
+        <v>1530</v>
       </c>
       <c r="C200" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D200" t="n">
-        <v>50</v>
+        <v>43.71428571428572</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B201" t="n">
-        <v>1620</v>
+        <v>1520</v>
       </c>
       <c r="C201" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D201" t="n">
-        <v>30</v>
+        <v>27.63636363636364</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B202" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="C202" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D202" t="n">
-        <v>28.33333333333333</v>
+        <v>50</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B203" t="n">
-        <v>1820</v>
+        <v>1620</v>
       </c>
       <c r="C203" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D203" t="n">
-        <v>39.56521739130435</v>
+        <v>30</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B204" t="n">
-        <v>1850</v>
+        <v>1700</v>
       </c>
       <c r="C204" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D204" t="n">
-        <v>28.03030303030303</v>
+        <v>28.33333333333333</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B205" t="n">
-        <v>1939</v>
+        <v>1820</v>
       </c>
       <c r="C205" t="n">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D205" t="n">
-        <v>27.30985915492958</v>
+        <v>39.56521739130435</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B206" t="n">
-        <v>1958</v>
+        <v>1850</v>
       </c>
       <c r="C206" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D206" t="n">
-        <v>26.45945945945946</v>
+        <v>28.03030303030303</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B207" t="n">
-        <v>1750</v>
+        <v>1939</v>
       </c>
       <c r="C207" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D207" t="n">
-        <v>20.11494252873563</v>
+        <v>27.30985915492958</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B208" t="n">
-        <v>2090</v>
+        <v>1958</v>
       </c>
       <c r="C208" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D208" t="n">
-        <v>33.70967741935484</v>
+        <v>26.45945945945946</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B209" t="n">
-        <v>2102</v>
+        <v>1750</v>
       </c>
       <c r="C209" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D209" t="n">
-        <v>30.91176470588235</v>
+        <v>20.11494252873563</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B210" t="n">
-        <v>2162</v>
+        <v>2090</v>
       </c>
       <c r="C210" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D210" t="n">
-        <v>28.82666666666667</v>
+        <v>33.70967741935484</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B211" t="n">
-        <v>2150</v>
+        <v>2102</v>
       </c>
       <c r="C211" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D211" t="n">
-        <v>26.875</v>
+        <v>30.91176470588235</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B212" t="n">
-        <v>2250</v>
+        <v>2162</v>
       </c>
       <c r="C212" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D212" t="n">
-        <v>30.40540540540541</v>
+        <v>28.82666666666667</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B213" t="n">
-        <v>2359</v>
+        <v>2150</v>
       </c>
       <c r="C213" t="n">
         <v>80</v>
       </c>
       <c r="D213" t="n">
-        <v>29.4875</v>
+        <v>26.875</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B214" t="n">
-        <v>2400</v>
+        <v>2250</v>
       </c>
       <c r="C214" t="n">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="D214" t="n">
-        <v>21.42857142857143</v>
+        <v>30.40540540540541</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B215" t="n">
-        <v>2459</v>
+        <v>2359</v>
       </c>
       <c r="C215" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D215" t="n">
-        <v>25.61458333333333</v>
+        <v>29.4875</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B216" t="n">
         <v>2400</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B217" t="n">
         <v>2459</v>
@@ -3476,4067 +3476,4067 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B218" t="n">
-        <v>2535</v>
+        <v>2400</v>
       </c>
       <c r="C218" t="n">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D218" t="n">
-        <v>29.47674418604651</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B219" t="n">
-        <v>2650</v>
+        <v>2459</v>
       </c>
       <c r="C219" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D219" t="n">
-        <v>29.44444444444444</v>
+        <v>25.61458333333333</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B220" t="n">
-        <v>2650</v>
+        <v>2535</v>
       </c>
       <c r="C220" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D220" t="n">
-        <v>27.04081632653061</v>
+        <v>29.47674418604651</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B221" t="n">
-        <v>2900</v>
+        <v>2650</v>
       </c>
       <c r="C221" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D221" t="n">
-        <v>27.61904761904762</v>
+        <v>29.44444444444444</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B222" t="n">
-        <v>2950</v>
+        <v>2650</v>
       </c>
       <c r="C222" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D222" t="n">
-        <v>42.14285714285715</v>
+        <v>27.04081632653061</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B223" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="C223" t="n">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D223" t="n">
-        <v>34.09090909090909</v>
+        <v>27.61904761904762</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B224" t="n">
-        <v>3234</v>
+        <v>2950</v>
       </c>
       <c r="C224" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D224" t="n">
-        <v>30.8</v>
+        <v>42.14285714285715</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B225" t="n">
-        <v>3243</v>
+        <v>3000</v>
       </c>
       <c r="C225" t="n">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="D225" t="n">
-        <v>27.025</v>
+        <v>34.09090909090909</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B226" t="n">
-        <v>4200</v>
+        <v>3234</v>
       </c>
       <c r="C226" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D226" t="n">
-        <v>35.8974358974359</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B227" t="n">
-        <v>4938</v>
+        <v>3243</v>
       </c>
       <c r="C227" t="n">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="D227" t="n">
-        <v>28.54335260115607</v>
+        <v>27.025</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B228" t="n">
-        <v>1100</v>
+        <v>4200</v>
       </c>
       <c r="C228" t="n">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="D228" t="n">
-        <v>35.48387096774194</v>
+        <v>35.8974358974359</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B229" t="n">
-        <v>700</v>
+        <v>4938</v>
       </c>
       <c r="C229" t="n">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="D229" t="n">
-        <v>30.43478260869565</v>
+        <v>28.54335260115607</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B230" t="n">
-        <v>880</v>
+        <v>1100</v>
       </c>
       <c r="C230" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D230" t="n">
-        <v>41.90476190476191</v>
+        <v>35.48387096774194</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B231" t="n">
-        <v>930</v>
+        <v>700</v>
       </c>
       <c r="C231" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D231" t="n">
-        <v>62</v>
+        <v>30.43478260869565</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B232" t="n">
-        <v>940</v>
+        <v>880</v>
       </c>
       <c r="C232" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D232" t="n">
-        <v>34.81481481481482</v>
+        <v>41.90476190476191</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B233" t="n">
-        <v>950</v>
+        <v>930</v>
       </c>
       <c r="C233" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D233" t="n">
-        <v>45.23809523809524</v>
+        <v>62</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B234" t="n">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="C234" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D234" t="n">
-        <v>45.23809523809524</v>
+        <v>34.81481481481482</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B235" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="C235" t="n">
         <v>21</v>
       </c>
       <c r="D235" t="n">
-        <v>47.61904761904762</v>
+        <v>45.23809523809524</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B236" t="n">
-        <v>1380</v>
+        <v>950</v>
       </c>
       <c r="C236" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D236" t="n">
-        <v>38.33333333333334</v>
+        <v>45.23809523809524</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B237" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="C237" t="n">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D237" t="n">
-        <v>29.82456140350877</v>
+        <v>47.61904761904762</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B238" t="n">
-        <v>1740</v>
+        <v>1380</v>
       </c>
       <c r="C238" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D238" t="n">
-        <v>35.51020408163265</v>
+        <v>38.33333333333334</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B239" t="n">
-        <v>2367</v>
+        <v>1700</v>
       </c>
       <c r="C239" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D239" t="n">
-        <v>31.14473684210526</v>
+        <v>29.82456140350877</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B240" t="n">
-        <v>2800</v>
+        <v>1740</v>
       </c>
       <c r="C240" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D240" t="n">
-        <v>33.73493975903614</v>
+        <v>35.51020408163265</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B241" t="n">
-        <v>3000</v>
+        <v>2367</v>
       </c>
       <c r="C241" t="n">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D241" t="n">
-        <v>28.84615384615385</v>
+        <v>31.14473684210526</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B242" t="n">
-        <v>1365</v>
+        <v>2800</v>
       </c>
       <c r="C242" t="n">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D242" t="n">
-        <v>31.02272727272727</v>
+        <v>33.73493975903614</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B243" t="n">
-        <v>855</v>
+        <v>3000</v>
       </c>
       <c r="C243" t="n">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D243" t="n">
-        <v>42.75</v>
+        <v>28.84615384615385</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B244" t="n">
-        <v>1250</v>
+        <v>1365</v>
       </c>
       <c r="C244" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D244" t="n">
-        <v>41.66666666666666</v>
+        <v>31.02272727272727</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B245" t="n">
-        <v>2132</v>
+        <v>855</v>
       </c>
       <c r="C245" t="n">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D245" t="n">
-        <v>30.89855072463768</v>
+        <v>42.75</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B246" t="n">
-        <v>2840</v>
+        <v>1250</v>
       </c>
       <c r="C246" t="n">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="D246" t="n">
-        <v>36.88311688311688</v>
+        <v>41.66666666666666</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B247" t="n">
-        <v>2614</v>
+        <v>2132</v>
       </c>
       <c r="C247" t="n">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D247" t="n">
-        <v>27.22916666666667</v>
+        <v>30.89855072463768</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B248" t="n">
-        <v>693</v>
+        <v>2840</v>
       </c>
       <c r="C248" t="n">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D248" t="n">
-        <v>36.47368421052632</v>
+        <v>36.88311688311688</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B249" t="n">
-        <v>1000</v>
+        <v>2614</v>
       </c>
       <c r="C249" t="n">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="D249" t="n">
-        <v>50</v>
+        <v>27.22916666666667</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B250" t="n">
-        <v>2200</v>
+        <v>693</v>
       </c>
       <c r="C250" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D250" t="n">
-        <v>81.48148148148148</v>
+        <v>36.47368421052632</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B251" t="n">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="C251" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D251" t="n">
-        <v>31.66666666666667</v>
+        <v>50</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B252" t="n">
-        <v>2347</v>
+        <v>2200</v>
       </c>
       <c r="C252" t="n">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D252" t="n">
-        <v>32.59722222222222</v>
+        <v>81.48148148148148</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B253" t="n">
-        <v>3460</v>
+        <v>1900</v>
       </c>
       <c r="C253" t="n">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="D253" t="n">
-        <v>33.59223300970874</v>
+        <v>31.66666666666667</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B254" t="n">
-        <v>1100</v>
+        <v>2347</v>
       </c>
       <c r="C254" t="n">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D254" t="n">
-        <v>44</v>
+        <v>32.59722222222222</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B255" t="n">
-        <v>1200</v>
+        <v>3460</v>
       </c>
       <c r="C255" t="n">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="D255" t="n">
-        <v>40</v>
+        <v>33.59223300970874</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B256" t="n">
-        <v>1313</v>
+        <v>1100</v>
       </c>
       <c r="C256" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D256" t="n">
-        <v>32.825</v>
+        <v>44</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B257" t="n">
-        <v>1490</v>
+        <v>1200</v>
       </c>
       <c r="C257" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D257" t="n">
-        <v>27.59259259259259</v>
+        <v>40</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B258" t="n">
-        <v>1850</v>
+        <v>1313</v>
       </c>
       <c r="C258" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D258" t="n">
-        <v>31.35593220338983</v>
+        <v>32.825</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B259" t="n">
-        <v>1880</v>
+        <v>1490</v>
       </c>
       <c r="C259" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D259" t="n">
-        <v>30.32258064516129</v>
+        <v>27.59259259259259</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B260" t="n">
-        <v>1900</v>
+        <v>1850</v>
       </c>
       <c r="C260" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D260" t="n">
-        <v>29.6875</v>
+        <v>31.35593220338983</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B261" t="n">
-        <v>1900</v>
+        <v>1880</v>
       </c>
       <c r="C261" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D261" t="n">
-        <v>39.58333333333334</v>
+        <v>30.32258064516129</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B262" t="n">
-        <v>2008</v>
+        <v>1900</v>
       </c>
       <c r="C262" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D262" t="n">
-        <v>23.08045977011494</v>
+        <v>29.6875</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B263" t="n">
-        <v>2960</v>
+        <v>1900</v>
       </c>
       <c r="C263" t="n">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="D263" t="n">
-        <v>27.92452830188679</v>
+        <v>39.58333333333334</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B264" t="n">
-        <v>3200</v>
+        <v>2008</v>
       </c>
       <c r="C264" t="n">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D264" t="n">
-        <v>28.07017543859649</v>
+        <v>23.08045977011494</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B265" t="n">
-        <v>3220</v>
+        <v>2960</v>
       </c>
       <c r="C265" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D265" t="n">
-        <v>29.27272727272727</v>
+        <v>27.92452830188679</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B266" t="n">
-        <v>3380</v>
+        <v>3200</v>
       </c>
       <c r="C266" t="n">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D266" t="n">
-        <v>26.2015503875969</v>
+        <v>28.07017543859649</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B267" t="n">
-        <v>3950</v>
+        <v>3220</v>
       </c>
       <c r="C267" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D267" t="n">
-        <v>31.6</v>
+        <v>29.27272727272727</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B268" t="n">
-        <v>645</v>
+        <v>3380</v>
       </c>
       <c r="C268" t="n">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="D268" t="n">
-        <v>43</v>
+        <v>26.2015503875969</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B269" t="n">
-        <v>682</v>
+        <v>3950</v>
       </c>
       <c r="C269" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D269" t="n">
-        <v>40.11764705882353</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B270" t="n">
-        <v>745</v>
+        <v>645</v>
       </c>
       <c r="C270" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D270" t="n">
-        <v>37.25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B271" t="n">
-        <v>1780</v>
+        <v>682</v>
       </c>
       <c r="C271" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D271" t="n">
-        <v>39.55555555555556</v>
+        <v>40.11764705882353</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B272" t="n">
-        <v>1595</v>
+        <v>745</v>
       </c>
       <c r="C272" t="n">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D272" t="n">
-        <v>29.53703703703704</v>
+        <v>37.25</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B273" t="n">
-        <v>4200</v>
+        <v>1780</v>
       </c>
       <c r="C273" t="n">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="D273" t="n">
-        <v>40</v>
+        <v>39.55555555555556</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B274" t="n">
-        <v>9500</v>
+        <v>1595</v>
       </c>
       <c r="C274" t="n">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="D274" t="n">
-        <v>63.33333333333334</v>
+        <v>29.53703703703704</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B275" t="n">
-        <v>973</v>
+        <v>4200</v>
       </c>
       <c r="C275" t="n">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="D275" t="n">
-        <v>33.55172413793103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B276" t="n">
-        <v>1100</v>
+        <v>9500</v>
       </c>
       <c r="C276" t="n">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="D276" t="n">
-        <v>30.55555555555556</v>
+        <v>63.33333333333334</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B277" t="n">
-        <v>1851</v>
+        <v>973</v>
       </c>
       <c r="C277" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D277" t="n">
-        <v>37.02</v>
+        <v>33.55172413793103</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B278" t="n">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="C278" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D278" t="n">
-        <v>33.48484848484848</v>
+        <v>30.55555555555556</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B279" t="n">
-        <v>1200</v>
+        <v>1851</v>
       </c>
       <c r="C279" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D279" t="n">
-        <v>30</v>
+        <v>37.02</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B280" t="n">
-        <v>1704</v>
+        <v>1105</v>
       </c>
       <c r="C280" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D280" t="n">
-        <v>30.42857142857143</v>
+        <v>33.48484848484848</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B281" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="C281" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D281" t="n">
-        <v>53.33333333333334</v>
+        <v>30</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B282" t="n">
-        <v>985</v>
+        <v>1704</v>
       </c>
       <c r="C282" t="n">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D282" t="n">
-        <v>28.97058823529412</v>
+        <v>30.42857142857143</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B283" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="C283" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D283" t="n">
-        <v>34.48275862068966</v>
+        <v>53.33333333333334</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B284" t="n">
-        <v>1006</v>
+        <v>985</v>
       </c>
       <c r="C284" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D284" t="n">
-        <v>38.69230769230769</v>
+        <v>28.97058823529412</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B285" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="C285" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D285" t="n">
-        <v>29.72972972972973</v>
+        <v>34.48275862068966</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B286" t="n">
-        <v>1220</v>
+        <v>1006</v>
       </c>
       <c r="C286" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D286" t="n">
-        <v>38.125</v>
+        <v>38.69230769230769</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B287" t="n">
-        <v>1230</v>
+        <v>1100</v>
       </c>
       <c r="C287" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D287" t="n">
-        <v>35.14285714285715</v>
+        <v>29.72972972972973</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B288" t="n">
-        <v>1270</v>
+        <v>1220</v>
       </c>
       <c r="C288" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D288" t="n">
-        <v>42.33333333333334</v>
+        <v>38.125</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B289" t="n">
-        <v>1280</v>
+        <v>1230</v>
       </c>
       <c r="C289" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D289" t="n">
-        <v>41.29032258064516</v>
+        <v>35.14285714285715</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B290" t="n">
-        <v>1290</v>
+        <v>1270</v>
       </c>
       <c r="C290" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D290" t="n">
-        <v>33.94736842105263</v>
+        <v>42.33333333333334</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B291" t="n">
-        <v>1300</v>
+        <v>1280</v>
       </c>
       <c r="C291" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D291" t="n">
-        <v>33.33333333333334</v>
+        <v>41.29032258064516</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B292" t="n">
-        <v>1340</v>
+        <v>1290</v>
       </c>
       <c r="C292" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D292" t="n">
-        <v>39.41176470588236</v>
+        <v>33.94736842105263</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B293" t="n">
-        <v>1350</v>
+        <v>1300</v>
       </c>
       <c r="C293" t="n">
         <v>39</v>
       </c>
       <c r="D293" t="n">
-        <v>34.61538461538461</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B294" t="n">
-        <v>1380</v>
+        <v>1340</v>
       </c>
       <c r="C294" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D294" t="n">
-        <v>34.5</v>
+        <v>39.41176470588236</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B295" t="n">
-        <v>1390</v>
+        <v>1350</v>
       </c>
       <c r="C295" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D295" t="n">
-        <v>29.57446808510638</v>
+        <v>34.61538461538461</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B296" t="n">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="C296" t="n">
         <v>40</v>
       </c>
       <c r="D296" t="n">
-        <v>34.75</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B297" t="n">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="C297" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D297" t="n">
-        <v>26.92307692307692</v>
+        <v>29.57446808510638</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B298" t="n">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="C298" t="n">
         <v>40</v>
       </c>
       <c r="D298" t="n">
-        <v>35</v>
+        <v>34.75</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B299" t="n">
         <v>1400</v>
       </c>
       <c r="C299" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D299" t="n">
-        <v>42.42424242424242</v>
+        <v>26.92307692307692</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B300" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="C300" t="n">
         <v>40</v>
       </c>
       <c r="D300" t="n">
-        <v>37.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B301" t="n">
-        <v>1550</v>
+        <v>1400</v>
       </c>
       <c r="C301" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D301" t="n">
-        <v>31</v>
+        <v>42.42424242424242</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B302" t="n">
-        <v>1570</v>
+        <v>1500</v>
       </c>
       <c r="C302" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D302" t="n">
-        <v>30.7843137254902</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B303" t="n">
-        <v>1590</v>
+        <v>1550</v>
       </c>
       <c r="C303" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D303" t="n">
-        <v>35.33333333333334</v>
+        <v>31</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B304" t="n">
-        <v>1600</v>
+        <v>1570</v>
       </c>
       <c r="C304" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D304" t="n">
-        <v>45.71428571428572</v>
+        <v>30.7843137254902</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B305" t="n">
-        <v>1600</v>
+        <v>1590</v>
       </c>
       <c r="C305" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D305" t="n">
-        <v>43.24324324324324</v>
+        <v>35.33333333333334</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B306" t="n">
-        <v>1627</v>
+        <v>1600</v>
       </c>
       <c r="C306" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D306" t="n">
-        <v>35.3695652173913</v>
+        <v>45.71428571428572</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B307" t="n">
-        <v>1690</v>
+        <v>1600</v>
       </c>
       <c r="C307" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D307" t="n">
-        <v>30.17857142857143</v>
+        <v>43.24324324324324</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B308" t="n">
-        <v>1696</v>
+        <v>1627</v>
       </c>
       <c r="C308" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D308" t="n">
-        <v>29.75438596491228</v>
+        <v>35.3695652173913</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B309" t="n">
-        <v>1700</v>
+        <v>1690</v>
       </c>
       <c r="C309" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D309" t="n">
-        <v>37.77777777777778</v>
+        <v>30.17857142857143</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B310" t="n">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="C310" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D310" t="n">
-        <v>36.17021276595744</v>
+        <v>29.75438596491228</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B311" t="n">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="C311" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D311" t="n">
-        <v>22.73333333333333</v>
+        <v>37.77777777777778</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B312" t="n">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="C312" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D312" t="n">
-        <v>34.31372549019608</v>
+        <v>36.17021276595744</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B313" t="n">
-        <v>1750</v>
+        <v>1705</v>
       </c>
       <c r="C313" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D313" t="n">
-        <v>35.71428571428572</v>
+        <v>22.73333333333333</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B314" t="n">
-        <v>1800</v>
+        <v>1750</v>
       </c>
       <c r="C314" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D314" t="n">
-        <v>45</v>
+        <v>34.31372549019608</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B315" t="n">
-        <v>1830</v>
+        <v>1750</v>
       </c>
       <c r="C315" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D315" t="n">
-        <v>28.59375</v>
+        <v>35.71428571428572</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B316" t="n">
-        <v>1726</v>
+        <v>1800</v>
       </c>
       <c r="C316" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D316" t="n">
-        <v>27.83870967741936</v>
+        <v>45</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B317" t="n">
-        <v>1850</v>
+        <v>1830</v>
       </c>
       <c r="C317" t="n">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D317" t="n">
-        <v>52.85714285714285</v>
+        <v>28.59375</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B318" t="n">
-        <v>1875</v>
+        <v>1726</v>
       </c>
       <c r="C318" t="n">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D318" t="n">
-        <v>44.64285714285715</v>
+        <v>27.83870967741936</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B319" t="n">
-        <v>1900</v>
+        <v>1850</v>
       </c>
       <c r="C319" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D319" t="n">
-        <v>42.22222222222222</v>
+        <v>52.85714285714285</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B320" t="n">
-        <v>1930</v>
+        <v>1875</v>
       </c>
       <c r="C320" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D320" t="n">
-        <v>30.15625</v>
+        <v>44.64285714285715</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B321" t="n">
-        <v>1990</v>
+        <v>1900</v>
       </c>
       <c r="C321" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D321" t="n">
-        <v>32.62295081967213</v>
+        <v>42.22222222222222</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B322" t="n">
-        <v>2000</v>
+        <v>1930</v>
       </c>
       <c r="C322" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D322" t="n">
-        <v>40</v>
+        <v>30.15625</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B323" t="n">
-        <v>2044</v>
+        <v>1990</v>
       </c>
       <c r="C323" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D323" t="n">
-        <v>31.9375</v>
+        <v>32.62295081967213</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B324" t="n">
-        <v>2060</v>
+        <v>2000</v>
       </c>
       <c r="C324" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D324" t="n">
-        <v>29.85507246376812</v>
+        <v>40</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B325" t="n">
-        <v>2100</v>
+        <v>2044</v>
       </c>
       <c r="C325" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D325" t="n">
-        <v>42</v>
+        <v>31.9375</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B326" t="n">
-        <v>1922</v>
+        <v>2060</v>
       </c>
       <c r="C326" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D326" t="n">
-        <v>26.32876712328767</v>
+        <v>29.85507246376812</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B327" t="n">
-        <v>2190</v>
+        <v>2100</v>
       </c>
       <c r="C327" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D327" t="n">
-        <v>31.28571428571428</v>
+        <v>42</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B328" t="n">
-        <v>2250</v>
+        <v>1922</v>
       </c>
       <c r="C328" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D328" t="n">
-        <v>34.09090909090909</v>
+        <v>26.32876712328767</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B329" t="n">
-        <v>2250</v>
+        <v>2190</v>
       </c>
       <c r="C329" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D329" t="n">
-        <v>40.90909090909091</v>
+        <v>31.28571428571428</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B330" t="n">
-        <v>2300</v>
+        <v>2250</v>
       </c>
       <c r="C330" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D330" t="n">
-        <v>35.38461538461539</v>
+        <v>34.09090909090909</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B331" t="n">
-        <v>2300</v>
+        <v>2250</v>
       </c>
       <c r="C331" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D331" t="n">
-        <v>28.75</v>
+        <v>40.90909090909091</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B332" t="n">
-        <v>2309</v>
+        <v>2300</v>
       </c>
       <c r="C332" t="n">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D332" t="n">
-        <v>26.23863636363636</v>
+        <v>35.38461538461539</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B333" t="n">
-        <v>2450</v>
+        <v>2300</v>
       </c>
       <c r="C333" t="n">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D333" t="n">
-        <v>45.37037037037037</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B334" t="n">
-        <v>2471</v>
+        <v>2309</v>
       </c>
       <c r="C334" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D334" t="n">
-        <v>27.76404494382022</v>
+        <v>26.23863636363636</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B335" t="n">
-        <v>2500</v>
+        <v>2450</v>
       </c>
       <c r="C335" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D335" t="n">
-        <v>48.07692307692308</v>
+        <v>45.37037037037037</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B336" t="n">
-        <v>2500</v>
+        <v>2471</v>
       </c>
       <c r="C336" t="n">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="D336" t="n">
-        <v>78.125</v>
+        <v>27.76404494382022</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B337" t="n">
         <v>2500</v>
       </c>
       <c r="C337" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D337" t="n">
-        <v>39.68253968253968</v>
+        <v>48.07692307692308</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B338" t="n">
         <v>2500</v>
       </c>
       <c r="C338" t="n">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D338" t="n">
-        <v>32.89473684210526</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B339" t="n">
-        <v>2587</v>
+        <v>2500</v>
       </c>
       <c r="C339" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D339" t="n">
-        <v>35.43835616438356</v>
+        <v>39.68253968253968</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B340" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="C340" t="n">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="D340" t="n">
-        <v>26.73267326732673</v>
+        <v>32.89473684210526</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B341" t="n">
-        <v>2700</v>
+        <v>2587</v>
       </c>
       <c r="C341" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D341" t="n">
-        <v>32.14285714285715</v>
+        <v>35.43835616438356</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B342" t="n">
-        <v>2750</v>
+        <v>2700</v>
       </c>
       <c r="C342" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D342" t="n">
-        <v>33.95061728395062</v>
+        <v>26.73267326732673</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B343" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="C343" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D343" t="n">
-        <v>41.1764705882353</v>
+        <v>32.14285714285715</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B344" t="n">
-        <v>2800</v>
+        <v>2750</v>
       </c>
       <c r="C344" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D344" t="n">
-        <v>46.66666666666666</v>
+        <v>33.95061728395062</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B345" t="n">
-        <v>2886</v>
+        <v>2800</v>
       </c>
       <c r="C345" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D345" t="n">
-        <v>33.95294117647059</v>
+        <v>41.1764705882353</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B346" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="C346" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D346" t="n">
-        <v>26.36363636363636</v>
+        <v>46.66666666666666</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B347" t="n">
-        <v>3000</v>
+        <v>2886</v>
       </c>
       <c r="C347" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D347" t="n">
-        <v>31.57894736842105</v>
+        <v>33.95294117647059</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B348" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="C348" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D348" t="n">
-        <v>29.7029702970297</v>
+        <v>26.36363636363636</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B349" t="n">
         <v>3000</v>
       </c>
       <c r="C349" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D349" t="n">
-        <v>33.33333333333334</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B350" t="n">
-        <v>2840</v>
+        <v>3000</v>
       </c>
       <c r="C350" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D350" t="n">
-        <v>28.4</v>
+        <v>29.7029702970297</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B351" t="n">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="C351" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D351" t="n">
-        <v>31</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B352" t="n">
-        <v>3179</v>
+        <v>2840</v>
       </c>
       <c r="C352" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D352" t="n">
-        <v>44.15277777777778</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B353" t="n">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="C353" t="n">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D353" t="n">
-        <v>28.07017543859649</v>
+        <v>31</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B354" t="n">
-        <v>3200</v>
+        <v>3179</v>
       </c>
       <c r="C354" t="n">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="D354" t="n">
-        <v>29.09090909090909</v>
+        <v>44.15277777777778</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B355" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="C355" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D355" t="n">
-        <v>27.27272727272727</v>
+        <v>28.07017543859649</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B356" t="n">
         <v>3200</v>
       </c>
       <c r="C356" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D356" t="n">
-        <v>30.47619047619047</v>
+        <v>29.09090909090909</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B357" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="C357" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D357" t="n">
-        <v>32.67326732673267</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B358" t="n">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="C358" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D358" t="n">
-        <v>34.73684210526316</v>
+        <v>30.47619047619047</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B359" t="n">
         <v>3300</v>
       </c>
       <c r="C359" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D359" t="n">
-        <v>30.55555555555556</v>
+        <v>32.67326732673267</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B360" t="n">
-        <v>3460</v>
+        <v>3300</v>
       </c>
       <c r="C360" t="n">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D360" t="n">
-        <v>33.59223300970874</v>
+        <v>34.73684210526316</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B361" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="C361" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D361" t="n">
-        <v>44.87179487179487</v>
+        <v>30.55555555555556</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B362" t="n">
-        <v>3650</v>
+        <v>3460</v>
       </c>
       <c r="C362" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D362" t="n">
-        <v>30.41666666666667</v>
+        <v>33.59223300970874</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B363" t="n">
-        <v>3660</v>
+        <v>3500</v>
       </c>
       <c r="C363" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D363" t="n">
-        <v>36.6</v>
+        <v>44.87179487179487</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B364" t="n">
-        <v>3680</v>
+        <v>3650</v>
       </c>
       <c r="C364" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D364" t="n">
-        <v>32.85714285714285</v>
+        <v>30.41666666666667</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B365" t="n">
-        <v>3700</v>
+        <v>3660</v>
       </c>
       <c r="C365" t="n">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="D365" t="n">
-        <v>25.51724137931035</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B366" t="n">
-        <v>4500</v>
+        <v>3680</v>
       </c>
       <c r="C366" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D366" t="n">
-        <v>38.46153846153846</v>
+        <v>32.85714285714285</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B367" t="n">
-        <v>4600</v>
+        <v>3700</v>
       </c>
       <c r="C367" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D367" t="n">
-        <v>35.11450381679389</v>
+        <v>25.51724137931035</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B368" t="n">
-        <v>4930</v>
+        <v>4500</v>
       </c>
       <c r="C368" t="n">
         <v>117</v>
       </c>
       <c r="D368" t="n">
-        <v>42.13675213675214</v>
+        <v>38.46153846153846</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B369" t="n">
-        <v>4937</v>
+        <v>4600</v>
       </c>
       <c r="C369" t="n">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="D369" t="n">
-        <v>28.53757225433526</v>
+        <v>35.11450381679389</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B370" t="n">
-        <v>5100</v>
+        <v>4930</v>
       </c>
       <c r="C370" t="n">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D370" t="n">
-        <v>51</v>
+        <v>42.13675213675214</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B371" t="n">
-        <v>5233</v>
+        <v>4937</v>
       </c>
       <c r="C371" t="n">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D371" t="n">
-        <v>32.30246913580247</v>
+        <v>28.53757225433526</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B372" t="n">
-        <v>5249</v>
+        <v>5100</v>
       </c>
       <c r="C372" t="n">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="D372" t="n">
-        <v>32.40123456790123</v>
+        <v>51</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B373" t="n">
-        <v>5000</v>
+        <v>5233</v>
       </c>
       <c r="C373" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D373" t="n">
-        <v>32.89473684210526</v>
+        <v>32.30246913580247</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B374" t="n">
-        <v>5307</v>
+        <v>5249</v>
       </c>
       <c r="C374" t="n">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D374" t="n">
-        <v>30.32571428571429</v>
+        <v>32.40123456790123</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B375" t="n">
-        <v>730</v>
+        <v>5000</v>
       </c>
       <c r="C375" t="n">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="D375" t="n">
-        <v>66.36363636363636</v>
+        <v>32.89473684210526</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B376" t="n">
-        <v>738</v>
+        <v>5307</v>
       </c>
       <c r="C376" t="n">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="D376" t="n">
-        <v>52.71428571428572</v>
+        <v>30.32571428571429</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B377" t="n">
-        <v>821</v>
+        <v>7450</v>
       </c>
       <c r="C377" t="n">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="D377" t="n">
-        <v>45.61111111111111</v>
+        <v>41.38888888888889</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B378" t="n">
-        <v>850</v>
+        <v>730</v>
       </c>
       <c r="C378" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D378" t="n">
-        <v>53.125</v>
+        <v>66.36363636363636</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B379" t="n">
-        <v>854</v>
+        <v>738</v>
       </c>
       <c r="C379" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D379" t="n">
-        <v>34.16</v>
+        <v>52.71428571428572</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B380" t="n">
-        <v>910</v>
+        <v>821</v>
       </c>
       <c r="C380" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D380" t="n">
-        <v>37.91666666666666</v>
+        <v>45.61111111111111</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B381" t="n">
-        <v>940</v>
+        <v>850</v>
       </c>
       <c r="C381" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D381" t="n">
-        <v>49.47368421052632</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B382" t="n">
-        <v>950</v>
+        <v>854</v>
       </c>
       <c r="C382" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D382" t="n">
-        <v>47.5</v>
+        <v>34.16</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B383" t="n">
-        <v>950</v>
+        <v>910</v>
       </c>
       <c r="C383" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D383" t="n">
-        <v>45.23809523809524</v>
+        <v>37.91666666666666</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B384" t="n">
-        <v>976</v>
+        <v>940</v>
       </c>
       <c r="C384" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D384" t="n">
-        <v>42.43478260869565</v>
+        <v>49.47368421052632</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B385" t="n">
-        <v>990</v>
+        <v>950</v>
       </c>
       <c r="C385" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D385" t="n">
-        <v>36.66666666666666</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B386" t="n">
-        <v>1190</v>
+        <v>950</v>
       </c>
       <c r="C386" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D386" t="n">
-        <v>41.03448275862069</v>
+        <v>45.23809523809524</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B387" t="n">
-        <v>1095</v>
+        <v>976</v>
       </c>
       <c r="C387" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D387" t="n">
-        <v>36.5</v>
+        <v>42.43478260869565</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B388" t="n">
-        <v>1210</v>
+        <v>990</v>
       </c>
       <c r="C388" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D388" t="n">
-        <v>30.25</v>
+        <v>36.66666666666666</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B389" t="n">
-        <v>1250</v>
+        <v>1190</v>
       </c>
       <c r="C389" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D389" t="n">
-        <v>44.64285714285715</v>
+        <v>41.03448275862069</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B390" t="n">
-        <v>1255</v>
+        <v>1095</v>
       </c>
       <c r="C390" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D390" t="n">
-        <v>52.29166666666666</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B391" t="n">
-        <v>1255</v>
+        <v>1210</v>
       </c>
       <c r="C391" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D391" t="n">
-        <v>52.29166666666666</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B392" t="n">
-        <v>1300</v>
+        <v>1250</v>
       </c>
       <c r="C392" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D392" t="n">
-        <v>40.625</v>
+        <v>44.64285714285715</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B393" t="n">
-        <v>1380</v>
+        <v>1255</v>
       </c>
       <c r="C393" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D393" t="n">
-        <v>43.125</v>
+        <v>52.29166666666666</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B394" t="n">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="C394" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D394" t="n">
-        <v>35.71428571428572</v>
+        <v>52.29166666666666</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B395" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="C395" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D395" t="n">
-        <v>44.11764705882353</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B396" t="n">
-        <v>1510</v>
+        <v>1380</v>
       </c>
       <c r="C396" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D396" t="n">
-        <v>52.06896551724138</v>
+        <v>43.125</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B397" t="n">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="C397" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D397" t="n">
-        <v>51.66666666666666</v>
+        <v>35.71428571428572</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B398" t="n">
-        <v>1560</v>
+        <v>1500</v>
       </c>
       <c r="C398" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D398" t="n">
-        <v>31.2</v>
+        <v>44.11764705882353</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B399" t="n">
-        <v>1580</v>
+        <v>1510</v>
       </c>
       <c r="C399" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D399" t="n">
-        <v>45.14285714285715</v>
+        <v>52.06896551724138</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B400" t="n">
-        <v>1640</v>
+        <v>1550</v>
       </c>
       <c r="C400" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D400" t="n">
-        <v>34.8936170212766</v>
+        <v>51.66666666666666</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B401" t="n">
-        <v>1650</v>
+        <v>1560</v>
       </c>
       <c r="C401" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D401" t="n">
-        <v>41.25</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B402" t="n">
-        <v>1665</v>
+        <v>1580</v>
       </c>
       <c r="C402" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D402" t="n">
-        <v>48.97058823529412</v>
+        <v>45.14285714285715</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B403" t="n">
-        <v>1865</v>
+        <v>1640</v>
       </c>
       <c r="C403" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D403" t="n">
-        <v>33.90909090909091</v>
+        <v>34.8936170212766</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B404" t="n">
-        <v>1920</v>
+        <v>1650</v>
       </c>
       <c r="C404" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D404" t="n">
-        <v>30</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B405" t="n">
-        <v>2000</v>
+        <v>1665</v>
       </c>
       <c r="C405" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D405" t="n">
-        <v>47.61904761904762</v>
+        <v>48.97058823529412</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B406" t="n">
-        <v>2000</v>
+        <v>1865</v>
       </c>
       <c r="C406" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D406" t="n">
-        <v>48.78048780487805</v>
+        <v>33.90909090909091</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B407" t="n">
-        <v>2130</v>
+        <v>1920</v>
       </c>
       <c r="C407" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D407" t="n">
-        <v>29.17808219178082</v>
+        <v>30</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B408" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="C408" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D408" t="n">
-        <v>38.59649122807018</v>
+        <v>47.61904761904762</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B409" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="C409" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="D409" t="n">
-        <v>28.75</v>
+        <v>48.78048780487805</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B410" t="n">
-        <v>2500</v>
+        <v>2130</v>
       </c>
       <c r="C410" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D410" t="n">
-        <v>41.66666666666666</v>
+        <v>29.17808219178082</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B411" t="n">
-        <v>3750</v>
+        <v>2200</v>
       </c>
       <c r="C411" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D411" t="n">
-        <v>53.57142857142857</v>
+        <v>38.59649122807018</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B412" t="n">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="C412" t="n">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="D412" t="n">
-        <v>27.53623188405797</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B413" t="n">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="C413" t="n">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="D413" t="n">
-        <v>32.28346456692913</v>
+        <v>41.66666666666666</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B414" t="n">
-        <v>4300</v>
+        <v>3750</v>
       </c>
       <c r="C414" t="n">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="D414" t="n">
-        <v>29.05405405405405</v>
+        <v>53.57142857142857</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B415" t="n">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="C415" t="n">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="D415" t="n">
-        <v>39.1304347826087</v>
+        <v>27.53623188405797</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B416" t="n">
-        <v>637</v>
+        <v>4100</v>
       </c>
       <c r="C416" t="n">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D416" t="n">
-        <v>45.5</v>
+        <v>32.28346456692913</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B417" t="n">
-        <v>680</v>
+        <v>4300</v>
       </c>
       <c r="C417" t="n">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="D417" t="n">
-        <v>48.57142857142857</v>
+        <v>29.05405405405405</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B418" t="n">
-        <v>700</v>
+        <v>4500</v>
       </c>
       <c r="C418" t="n">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="D418" t="n">
-        <v>38.88888888888889</v>
+        <v>39.1304347826087</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B419" t="n">
-        <v>960</v>
+        <v>637</v>
       </c>
       <c r="C419" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D419" t="n">
-        <v>48</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B420" t="n">
-        <v>775</v>
+        <v>680</v>
       </c>
       <c r="C420" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D420" t="n">
-        <v>38.75</v>
+        <v>48.57142857142857</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B421" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="C421" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D421" t="n">
-        <v>31.25</v>
+        <v>38.88888888888889</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B422" t="n">
-        <v>1380</v>
+        <v>960</v>
       </c>
       <c r="C422" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D422" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B423" t="n">
-        <v>1630</v>
+        <v>775</v>
       </c>
       <c r="C423" t="n">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D423" t="n">
-        <v>30.18518518518519</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B424" t="n">
-        <v>1650</v>
+        <v>1250</v>
       </c>
       <c r="C424" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D424" t="n">
-        <v>33</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B425" t="n">
-        <v>1765</v>
+        <v>1380</v>
       </c>
       <c r="C425" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D425" t="n">
-        <v>28.46774193548387</v>
+        <v>46</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B426" t="n">
-        <v>1900</v>
+        <v>1630</v>
       </c>
       <c r="C426" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D426" t="n">
-        <v>29.6875</v>
+        <v>30.18518518518519</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B427" t="n">
-        <v>1787</v>
+        <v>1650</v>
       </c>
       <c r="C427" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D427" t="n">
-        <v>23.20779220779221</v>
+        <v>33</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B428" t="n">
-        <v>1920</v>
+        <v>1765</v>
       </c>
       <c r="C428" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D428" t="n">
-        <v>30</v>
+        <v>28.46774193548387</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B429" t="n">
-        <v>2132</v>
+        <v>1900</v>
       </c>
       <c r="C429" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D429" t="n">
-        <v>30.89855072463768</v>
+        <v>29.6875</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B430" t="n">
-        <v>2132</v>
+        <v>1787</v>
       </c>
       <c r="C430" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D430" t="n">
-        <v>30.89855072463768</v>
+        <v>23.20779220779221</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B431" t="n">
-        <v>2200</v>
+        <v>1920</v>
       </c>
       <c r="C431" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D431" t="n">
-        <v>36.66666666666666</v>
+        <v>30</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B432" t="n">
-        <v>2272</v>
+        <v>2132</v>
       </c>
       <c r="C432" t="n">
         <v>69</v>
       </c>
       <c r="D432" t="n">
-        <v>32.92753623188405</v>
+        <v>30.89855072463768</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B433" t="n">
-        <v>2400</v>
+        <v>2132</v>
       </c>
       <c r="C433" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D433" t="n">
-        <v>34.28571428571428</v>
+        <v>30.89855072463768</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B434" t="n">
-        <v>2350</v>
+        <v>2200</v>
       </c>
       <c r="C434" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D434" t="n">
-        <v>33.57142857142857</v>
+        <v>36.66666666666666</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B435" t="n">
-        <v>2657</v>
+        <v>2272</v>
       </c>
       <c r="C435" t="n">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D435" t="n">
-        <v>66.425</v>
+        <v>32.92753623188405</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B436" t="n">
-        <v>2999</v>
+        <v>2400</v>
       </c>
       <c r="C436" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D436" t="n">
-        <v>39.46052631578947</v>
+        <v>34.28571428571428</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B437" t="n">
-        <v>3000</v>
+        <v>2350</v>
       </c>
       <c r="C437" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D437" t="n">
-        <v>37.5</v>
+        <v>33.57142857142857</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B438" t="n">
-        <v>3460</v>
+        <v>2657</v>
       </c>
       <c r="C438" t="n">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D438" t="n">
-        <v>33.59223300970874</v>
+        <v>66.425</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B439" t="n">
-        <v>3600</v>
+        <v>2999</v>
       </c>
       <c r="C439" t="n">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="D439" t="n">
-        <v>29.03225806451613</v>
+        <v>39.46052631578947</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B440" t="n">
-        <v>2290</v>
+        <v>3000</v>
       </c>
       <c r="C440" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D440" t="n">
-        <v>32.71428571428572</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B441" t="n">
-        <v>2927</v>
+        <v>3460</v>
       </c>
       <c r="C441" t="n">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D441" t="n">
-        <v>25.23275862068965</v>
+        <v>33.59223300970874</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B442" t="n">
-        <v>700</v>
+        <v>3600</v>
       </c>
       <c r="C442" t="n">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="D442" t="n">
-        <v>50</v>
+        <v>29.03225806451613</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B443" t="n">
-        <v>755</v>
+        <v>20000</v>
       </c>
       <c r="C443" t="n">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="D443" t="n">
-        <v>39.73684210526316</v>
+        <v>111.1111111111111</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B444" t="n">
-        <v>990</v>
+        <v>2290</v>
       </c>
       <c r="C444" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D444" t="n">
-        <v>41.25</v>
+        <v>32.71428571428572</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B445" t="n">
-        <v>1058</v>
+        <v>2927</v>
       </c>
       <c r="C445" t="n">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="D445" t="n">
-        <v>50.38095238095238</v>
+        <v>25.23275862068965</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B446" t="n">
-        <v>1095</v>
+        <v>700</v>
       </c>
       <c r="C446" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D446" t="n">
-        <v>54.75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B447" t="n">
-        <v>1100</v>
+        <v>755</v>
       </c>
       <c r="C447" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D447" t="n">
-        <v>29.72972972972973</v>
+        <v>39.73684210526316</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B448" t="n">
-        <v>1280</v>
+        <v>990</v>
       </c>
       <c r="C448" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D448" t="n">
-        <v>44.13793103448276</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B449" t="n">
-        <v>1350</v>
+        <v>1058</v>
       </c>
       <c r="C449" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D449" t="n">
-        <v>38.57142857142857</v>
+        <v>50.38095238095238</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B450" t="n">
-        <v>1400</v>
+        <v>1095</v>
       </c>
       <c r="C450" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D450" t="n">
-        <v>31.11111111111111</v>
+        <v>54.75</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B451" t="n">
-        <v>1550</v>
+        <v>1100</v>
       </c>
       <c r="C451" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D451" t="n">
-        <v>46.96969696969697</v>
+        <v>29.72972972972973</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B452" t="n">
-        <v>1900</v>
+        <v>1280</v>
       </c>
       <c r="C452" t="n">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D452" t="n">
-        <v>29.6875</v>
+        <v>44.13793103448276</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B453" t="n">
-        <v>2200</v>
+        <v>1350</v>
       </c>
       <c r="C453" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D453" t="n">
-        <v>40</v>
+        <v>38.57142857142857</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B454" t="n">
-        <v>3140</v>
+        <v>1400</v>
       </c>
       <c r="C454" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D454" t="n">
-        <v>31.4</v>
+        <v>31.11111111111111</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B455" t="n">
-        <v>600</v>
+        <v>1550</v>
       </c>
       <c r="C455" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D455" t="n">
-        <v>30</v>
+        <v>46.96969696969697</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B456" t="n">
-        <v>600</v>
+        <v>1900</v>
       </c>
       <c r="C456" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D456" t="n">
-        <v>37.5</v>
+        <v>29.6875</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B457" t="n">
-        <v>890</v>
+        <v>2200</v>
       </c>
       <c r="C457" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D457" t="n">
-        <v>44.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B458" t="n">
-        <v>1050</v>
+        <v>3140</v>
       </c>
       <c r="C458" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D458" t="n">
-        <v>35</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B459" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="C459" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D459" t="n">
-        <v>35.48387096774194</v>
+        <v>30</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B460" t="n">
-        <v>1650</v>
+        <v>600</v>
       </c>
       <c r="C460" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D460" t="n">
-        <v>33.67346938775511</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B461" t="n">
-        <v>2090</v>
+        <v>890</v>
       </c>
       <c r="C461" t="n">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="D461" t="n">
-        <v>28.63013698630137</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B462" t="n">
-        <v>6300</v>
+        <v>1050</v>
       </c>
       <c r="C462" t="n">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="D462" t="n">
-        <v>56.25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B463" t="n">
-        <v>930</v>
+        <v>1100</v>
       </c>
       <c r="C463" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D463" t="n">
-        <v>58.125</v>
+        <v>35.48387096774194</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B464" t="n">
-        <v>1980</v>
+        <v>1650</v>
       </c>
       <c r="C464" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D464" t="n">
-        <v>23.57142857142857</v>
+        <v>33.67346938775511</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B465" t="n">
-        <v>885</v>
+        <v>2090</v>
       </c>
       <c r="C465" t="n">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="D465" t="n">
-        <v>38.47826086956522</v>
+        <v>28.63013698630137</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B466" t="n">
-        <v>1060</v>
+        <v>6300</v>
       </c>
       <c r="C466" t="n">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="D466" t="n">
-        <v>22.5531914893617</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B467" t="n">
-        <v>1200</v>
+        <v>930</v>
       </c>
       <c r="C467" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D467" t="n">
-        <v>25</v>
+        <v>58.125</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B468" t="n">
-        <v>1500</v>
+        <v>1980</v>
       </c>
       <c r="C468" t="n">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="D468" t="n">
-        <v>39.47368421052632</v>
+        <v>23.57142857142857</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B469" t="n">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C469" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D469" t="n">
-        <v>44.5</v>
+        <v>38.47826086956522</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B470" t="n">
-        <v>1300</v>
+        <v>1060</v>
       </c>
       <c r="C470" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D470" t="n">
-        <v>30.95238095238095</v>
+        <v>22.5531914893617</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B471" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="C471" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D471" t="n">
-        <v>31.03448275862069</v>
+        <v>25</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B472" t="n">
-        <v>1150</v>
+        <v>1500</v>
       </c>
       <c r="C472" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D472" t="n">
-        <v>47.91666666666666</v>
+        <v>39.47368421052632</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B473" t="n">
-        <v>840</v>
+        <v>890</v>
       </c>
       <c r="C473" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D473" t="n">
-        <v>38.18181818181818</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B474" t="n">
-        <v>928</v>
+        <v>1300</v>
       </c>
       <c r="C474" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D474" t="n">
-        <v>32</v>
+        <v>30.95238095238095</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B475" t="n">
-        <v>981</v>
+        <v>900</v>
       </c>
       <c r="C475" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D475" t="n">
-        <v>32.7</v>
+        <v>31.03448275862069</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B476" t="n">
-        <v>1180</v>
+        <v>1150</v>
       </c>
       <c r="C476" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D476" t="n">
-        <v>38.06451612903226</v>
+        <v>47.91666666666666</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B477" t="n">
-        <v>1198</v>
+        <v>840</v>
       </c>
       <c r="C477" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D477" t="n">
-        <v>36.3030303030303</v>
+        <v>38.18181818181818</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B478" t="n">
-        <v>1450</v>
+        <v>928</v>
       </c>
       <c r="C478" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D478" t="n">
-        <v>30.85106382978723</v>
+        <v>32</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B479" t="n">
-        <v>3000</v>
+        <v>981</v>
       </c>
       <c r="C479" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D479" t="n">
-        <v>60</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B480" t="n">
-        <v>875</v>
+        <v>1180</v>
       </c>
       <c r="C480" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D480" t="n">
-        <v>48.61111111111111</v>
+        <v>38.06451612903226</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B481" t="n">
-        <v>998</v>
+        <v>1198</v>
       </c>
       <c r="C481" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D481" t="n">
-        <v>29.35294117647059</v>
+        <v>36.3030303030303</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B482" t="n">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="C482" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D482" t="n">
-        <v>40</v>
+        <v>30.85106382978723</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B483" t="n">
-        <v>1250</v>
+        <v>3000</v>
       </c>
       <c r="C483" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D483" t="n">
-        <v>40.32258064516129</v>
+        <v>60</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B484" t="n">
-        <v>1480</v>
+        <v>875</v>
       </c>
       <c r="C484" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D484" t="n">
-        <v>37</v>
+        <v>48.61111111111111</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B485" t="n">
-        <v>1900</v>
+        <v>998</v>
       </c>
       <c r="C485" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D485" t="n">
-        <v>41.30434782608695</v>
+        <v>29.35294117647059</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B486" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="C486" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D486" t="n">
-        <v>35.71428571428572</v>
+        <v>40</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B487" t="n">
-        <v>950</v>
+        <v>1250</v>
       </c>
       <c r="C487" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D487" t="n">
-        <v>33.92857142857143</v>
+        <v>40.32258064516129</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B488" t="n">
-        <v>1180</v>
+        <v>1480</v>
       </c>
       <c r="C488" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D488" t="n">
-        <v>43.7037037037037</v>
+        <v>37</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B489" t="n">
-        <v>1550</v>
+        <v>1900</v>
       </c>
       <c r="C489" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D489" t="n">
-        <v>38.75</v>
+        <v>41.30434782608695</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B490" t="n">
-        <v>1333</v>
+        <v>2500</v>
       </c>
       <c r="C490" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D490" t="n">
-        <v>32.51219512195122</v>
+        <v>35.71428571428572</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B491" t="n">
-        <v>1580</v>
+        <v>950</v>
       </c>
       <c r="C491" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D491" t="n">
-        <v>39.5</v>
+        <v>33.92857142857143</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B492" t="n">
-        <v>850</v>
+        <v>1180</v>
       </c>
       <c r="C492" t="n">
         <v>27</v>
       </c>
       <c r="D492" t="n">
-        <v>31.48148148148148</v>
+        <v>43.7037037037037</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B493" t="n">
-        <v>488</v>
+        <v>1550</v>
       </c>
       <c r="C493" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D493" t="n">
-        <v>37.53846153846154</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B494" t="n">
-        <v>619</v>
+        <v>1333</v>
       </c>
       <c r="C494" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D494" t="n">
-        <v>34.38888888888889</v>
+        <v>32.51219512195122</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B495" t="n">
-        <v>820</v>
+        <v>1580</v>
       </c>
       <c r="C495" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D495" t="n">
-        <v>35.65217391304348</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B496" t="n">
-        <v>1350</v>
+        <v>850</v>
       </c>
       <c r="C496" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D496" t="n">
-        <v>42.1875</v>
+        <v>31.48148148148148</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B497" t="n">
-        <v>1475</v>
+        <v>488</v>
       </c>
       <c r="C497" t="n">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D497" t="n">
-        <v>25.87719298245614</v>
+        <v>37.53846153846154</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B498" t="n">
-        <v>1397</v>
+        <v>619</v>
       </c>
       <c r="C498" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D498" t="n">
-        <v>36.76315789473684</v>
+        <v>34.38888888888889</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B499" t="n">
-        <v>1460</v>
+        <v>820</v>
       </c>
       <c r="C499" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D499" t="n">
-        <v>28.07692307692308</v>
+        <v>35.65217391304348</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B500" t="n">
-        <v>3200</v>
+        <v>1350</v>
       </c>
       <c r="C500" t="n">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="D500" t="n">
-        <v>28.07017543859649</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B501" t="n">
-        <v>5000</v>
+        <v>1475</v>
       </c>
       <c r="C501" t="n">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="D501" t="n">
-        <v>36.76470588235294</v>
+        <v>25.87719298245614</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B502" t="n">
-        <v>790</v>
+        <v>1397</v>
       </c>
       <c r="C502" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D502" t="n">
-        <v>35.90909090909091</v>
+        <v>36.76315789473684</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B503" t="n">
-        <v>800</v>
+        <v>1460</v>
       </c>
       <c r="C503" t="n">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D503" t="n">
-        <v>57.14285714285715</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B504" t="n">
-        <v>810</v>
+        <v>3200</v>
       </c>
       <c r="C504" t="n">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="D504" t="n">
-        <v>45</v>
+        <v>28.07017543859649</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B505" t="n">
-        <v>940</v>
+        <v>5000</v>
       </c>
       <c r="C505" t="n">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="D505" t="n">
-        <v>36.15384615384615</v>
+        <v>36.76470588235294</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B506" t="n">
-        <v>898</v>
+        <v>790</v>
       </c>
       <c r="C506" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D506" t="n">
-        <v>33.25925925925926</v>
+        <v>35.90909090909091</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B507" t="n">
-        <v>1137</v>
+        <v>800</v>
       </c>
       <c r="C507" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D507" t="n">
-        <v>34.45454545454545</v>
+        <v>57.14285714285715</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B508" t="n">
         <v>810</v>
@@ -7550,7 +7550,7 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B509" t="n">
         <v>940</v>
@@ -7564,7 +7564,7 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B510" t="n">
         <v>898</v>
@@ -7578,7 +7578,7 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B511" t="n">
         <v>1137</v>
@@ -7592,309 +7592,365 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B512" t="n">
-        <v>1600</v>
+        <v>810</v>
       </c>
       <c r="C512" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D512" t="n">
-        <v>26.66666666666667</v>
+        <v>45</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B513" t="n">
-        <v>2097</v>
+        <v>940</v>
       </c>
       <c r="C513" t="n">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D513" t="n">
-        <v>36.1551724137931</v>
+        <v>36.15384615384615</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B514" t="n">
-        <v>733</v>
+        <v>898</v>
       </c>
       <c r="C514" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D514" t="n">
-        <v>36.65</v>
+        <v>33.25925925925926</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B515" t="n">
-        <v>1166</v>
+        <v>1137</v>
       </c>
       <c r="C515" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D515" t="n">
-        <v>43.18518518518518</v>
+        <v>34.45454545454545</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B516" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="C516" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D516" t="n">
-        <v>39.47368421052632</v>
+        <v>26.66666666666667</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B517" t="n">
-        <v>1900</v>
+        <v>2097</v>
       </c>
       <c r="C517" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D517" t="n">
-        <v>42.22222222222222</v>
+        <v>36.1551724137931</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B518" t="n">
-        <v>1900</v>
+        <v>733</v>
       </c>
       <c r="C518" t="n">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D518" t="n">
-        <v>29.6875</v>
+        <v>36.65</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B519" t="n">
-        <v>1950</v>
+        <v>1166</v>
       </c>
       <c r="C519" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D519" t="n">
-        <v>43.33333333333334</v>
+        <v>43.18518518518518</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B520" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="C520" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D520" t="n">
-        <v>30.76923076923077</v>
+        <v>39.47368421052632</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B521" t="n">
-        <v>2950</v>
+        <v>1900</v>
       </c>
       <c r="C521" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="D521" t="n">
-        <v>31.05263157894737</v>
+        <v>42.22222222222222</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B522" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="C522" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D522" t="n">
-        <v>60</v>
+        <v>29.6875</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B523" t="n">
-        <v>1300</v>
+        <v>1950</v>
       </c>
       <c r="C523" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D523" t="n">
-        <v>65</v>
+        <v>43.33333333333334</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B524" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="C524" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D524" t="n">
-        <v>70</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B525" t="n">
-        <v>1690</v>
+        <v>2950</v>
       </c>
       <c r="C525" t="n">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="D525" t="n">
-        <v>29.13793103448276</v>
+        <v>31.05263157894737</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B526" t="n">
-        <v>1940</v>
+        <v>1200</v>
       </c>
       <c r="C526" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D526" t="n">
-        <v>48.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B527" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="C527" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D527" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B528" t="n">
-        <v>2490</v>
+        <v>1400</v>
       </c>
       <c r="C528" t="n">
+        <v>20</v>
+      </c>
+      <c r="D528" t="n">
         <v>70</v>
-      </c>
-      <c r="D528" t="n">
-        <v>35.57142857142857</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B529" t="n">
-        <v>1490</v>
+        <v>1690</v>
       </c>
       <c r="C529" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D529" t="n">
-        <v>31.04166666666667</v>
+        <v>29.13793103448276</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B530" t="n">
-        <v>2020</v>
+        <v>1940</v>
       </c>
       <c r="C530" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D530" t="n">
-        <v>34.82758620689656</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B531" t="n">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="C531" t="n">
         <v>70</v>
       </c>
       <c r="D531" t="n">
-        <v>29.28571428571428</v>
+        <v>30</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B532" t="n">
-        <v>1220</v>
+        <v>2490</v>
       </c>
       <c r="C532" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D532" t="n">
-        <v>29.04761904761905</v>
+        <v>35.57142857142857</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B533" t="n">
+        <v>1490</v>
+      </c>
+      <c r="C533" t="n">
+        <v>48</v>
+      </c>
+      <c r="D533" t="n">
+        <v>31.04166666666667</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B534" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C534" t="n">
+        <v>58</v>
+      </c>
+      <c r="D534" t="n">
+        <v>34.82758620689656</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B535" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C535" t="n">
+        <v>70</v>
+      </c>
+      <c r="D535" t="n">
+        <v>29.28571428571428</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B536" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C536" t="n">
+        <v>42</v>
+      </c>
+      <c r="D536" t="n">
+        <v>29.04761904761905</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
         <v>544</v>
       </c>
-      <c r="B533" t="n">
+      <c r="B537" t="n">
         <v>1610</v>
       </c>
-      <c r="C533" t="n">
+      <c r="C537" t="n">
         <v>44</v>
       </c>
-      <c r="D533" t="n">
+      <c r="D537" t="n">
         <v>36.59090909090909</v>
       </c>
     </row>

--- a/data/house/house.xlsx
+++ b/data/house/house.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>loyer_per_m2</t>
+          <t>loyer_m2</t>
         </is>
       </c>
     </row>

--- a/data/house/house.xlsx
+++ b/data/house/house.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>loyer_m2</t>
+          <t>loyers_m2</t>
         </is>
       </c>
     </row>
